--- a/luck_generation_data_frame.xlsx
+++ b/luck_generation_data_frame.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:E463"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -387,91 +387,111 @@
           <t>luck</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>follower_of_follower</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EmpoweringPumps</t>
+          <t>jaCattell</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>14.4</v>
+        <v>4</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FordDevTeam</t>
+          <t>BeDifrent</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>12.8</v>
+        <v>4</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MichaelBarnea</t>
+          <t>TechAllianceUK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tukuoro</t>
+          <t>IntuitionIT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PennanenMaria</t>
+          <t>LukeMorton</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>9.6</v>
+        <v>3.692307692307693</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CornerstoneVP</t>
+          <t>smith_prim</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -481,77 +501,92 @@
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>9.6</v>
+        <v>3.692307692307693</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EugeneBuff</t>
+          <t>EmmaJNolan_</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>3.692307692307693</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>wlior</t>
+          <t>TravisLeeStreet</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>3.538461538461538</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MitchShelowitz</t>
+          <t>TaniaHa85481408</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>3.461538461538462</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Atlas_Dynamics</t>
+          <t>Luisa_Donato</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>3.230769230769231</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JonGluck</t>
+          <t>ideasasylum</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -561,13 +596,16 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>7.8</v>
+        <v>3</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>stasshulgin</t>
+          <t>randwhitmore</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -577,3622 +615,8559 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>7.6</v>
+        <v>2.923076923076923</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ErezRM</t>
+          <t>SmartConnected3</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>7.2</v>
+        <v>2.923076923076923</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>accelerator_ffm</t>
+          <t>teppie</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>7.2</v>
+        <v>2.769230769230769</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>squiglit</t>
+          <t>jacquitaylorfb</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>7.2</v>
+        <v>2.769230769230769</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NaamaZalzman</t>
+          <t>DariaKDesign</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>2.769230769230769</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>adelia_helem</t>
+          <t>RegDyn</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6.6</v>
+        <v>2.769230769230769</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Grow_Corp</t>
+          <t>uktransalliance</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>6.4</v>
+        <v>2.769230769230769</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Roy_H</t>
+          <t>dinogen</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>6.4</v>
+        <v>2.769230769230769</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Engieapp</t>
+          <t>enrichmann</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>6.4</v>
+        <v>2.769230769230769</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rani_Shifron</t>
+          <t>jystewart</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>6.4</v>
+        <v>2.615384615384615</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>manuelreil</t>
+          <t>BevEve</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>6</v>
+        <v>2.615384615384615</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>alanweinkrantz</t>
+          <t>erbridge</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5.6</v>
+        <v>2.615384615384615</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>aquaenviro</t>
+          <t>Ert_Erol</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5.6</v>
+        <v>2.615384615384615</v>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PrimayerL</t>
+          <t>johnjackson1066</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>5.6</v>
+        <v>2.615384615384615</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>guycherni</t>
+          <t>MastodonC</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>5.6</v>
+        <v>2.615384615384615</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DanGBalter</t>
+          <t>egle_a_ieva</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>5.6</v>
+        <v>2.615384615384615</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ramijames</t>
+          <t>shaypepper</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5.2</v>
+        <v>2.615384615384615</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SteveWongLA</t>
+          <t>MTPpod</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>5.2</v>
+        <v>2.615384615384615</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>somspace</t>
+          <t>BMTalkTech</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>4.8</v>
+        <v>2.615384615384615</v>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PTLNews</t>
+          <t>maxoly</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>4.8</v>
+        <v>2.615384615384615</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>theGreenspan</t>
+          <t>sabina_chaudhry</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4.8</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IsraelinSerbia</t>
+          <t>GregDogUK</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>4.8</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Macedonia2025</t>
+          <t>AlejaDC</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>4.8</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>rshalti</t>
+          <t>realmrudigower</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>4.8</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jakebacon7</t>
+          <t>evvnt</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>4.8</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>kin_bueno</t>
+          <t>kamrai_</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>4.8</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TalCatran</t>
+          <t>toriajames1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>4.8</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GilaHalleli</t>
+          <t>mischief_dream</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>4.8</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GrooveInfoTech</t>
+          <t>designandpolicy</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>4.4</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ymachad0</t>
+          <t>_RhiannonLawson</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>4.4</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Maayanyazdi</t>
+          <t>snipeyhead</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4.2</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DAVIDMBAKA1</t>
+          <t>Mariuxtheone</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>4.2</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ehreng</t>
+          <t>AntonioPatti</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>2.461538461538462</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>idoivri</t>
+          <t>darwin</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NoaSe</t>
+          <t>sneakybeaky</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>JlemDateline</t>
+          <t>claragt</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>denal05</t>
+          <t>anabeeb</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>hirtschulz</t>
+          <t>squidreplicator</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>fdocrespo</t>
+          <t>JojoJoeyJB</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>StellarNovaCO</t>
+          <t>ndajz</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Vardankarapet13</t>
+          <t>edtparkes</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>watulab</t>
+          <t>zoetyndall</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jane_BPM</t>
+          <t>trustforlondon</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>bysdan</t>
+          <t>dragosrobertn</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>alldestroyers</t>
+          <t>JobHollerSophie</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>EdwardGazit</t>
+          <t>_jadedickinson</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kim_maj</t>
+          <t>lisajjeffery</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>htfrum</t>
+          <t>DigiSweeney</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WoxxerInc</t>
+          <t>ptowl_xyz</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Silicon_wadi</t>
+          <t>ben_difrent</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>lig_it</t>
+          <t>CherylJStevens</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VoGiApp</t>
+          <t>_megtonner</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NSardzoska</t>
+          <t>James_Kemp_UK</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>williamsb504</t>
+          <t>technoir15</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>3.6</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>raz_kaplan</t>
+          <t>NatashaMcrDig</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>3.2</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>breslovtherapy</t>
+          <t>nicfoxds</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>3.2</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>buzz_hunter</t>
+          <t>ChreativeChloe</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>3.2</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BenjaminL1nd</t>
+          <t>ashfurrow</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>3.2</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TowerofDavid</t>
+          <t>postsharp</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>3.2</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ArielaBeniluz</t>
+          <t>giovanniscala</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>3.2</v>
+        <v>2.307692307692307</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Gil_Liebersohn</t>
+          <t>Stubbs</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C73" t="n">
         <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>3.2</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>jumpspeedco</t>
+          <t>davecunningham</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C74" t="n">
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>3.2</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>lekovskidarko</t>
+          <t>benmatselby</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C75" t="n">
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>3.2</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>yesusoaabril1</t>
+          <t>NorthernWrites</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C76" t="n">
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>3.2</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>inn_tv1</t>
+          <t>richardn2009</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C77" t="n">
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>3.2</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NoaMuzz</t>
+          <t>Emm_McG</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>3.2</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>YonyGolan</t>
+          <t>mrkwrght</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C79" t="n">
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>3.2</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>yogibokorea</t>
+          <t>Kev_C_Murray</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C80" t="n">
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>3.2</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>kerndynamics</t>
+          <t>NandaDagostin</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C81" t="n">
         <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mariswatercon</t>
+          <t>the_escapegoat</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C82" t="n">
         <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>PheasantEnergy</t>
+          <t>J_Mann19</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C83" t="n">
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>topsleaf</t>
+          <t>ClaireWalkley</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C84" t="n">
         <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>qgudayol</t>
+          <t>kitterati</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C85" t="n">
         <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>dangang10</t>
+          <t>clare0young</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C86" t="n">
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AviLozowick</t>
+          <t>EveShotton</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C87" t="n">
         <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>GaiaVSM</t>
+          <t>lauraplaga</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C88" t="n">
         <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>YoavUdwin</t>
+          <t>fitzsimple</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C89" t="n">
         <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FirgunDay</t>
+          <t>Parke1886</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C90" t="n">
         <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MitkoAndonov_</t>
+          <t>AndyMacDroo</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C91" t="n">
         <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Smart_Bus</t>
+          <t>stuart_hollands</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C92" t="n">
         <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>michaelassraf</t>
+          <t>J3_SSC</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C93" t="n">
         <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>FleurHassanN</t>
+          <t>corinnepinfold</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C94" t="n">
         <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bringDeMatt</t>
+          <t>rebeccaJKBaker</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C95" t="n">
         <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>imersiveworld</t>
+          <t>AnnaInman8</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C96" t="n">
         <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>RozAfriq</t>
+          <t>juanpabloaj</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C97" t="n">
         <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>2.8</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Saul_Lieberman</t>
+          <t>AndyMacDroo</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>2.4</v>
+        <v>2.153846153846154</v>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>dougmiell</t>
+          <t>Praveen_NK</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C99" t="n">
         <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MAYUWater_</t>
+          <t>duncanjbrown</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C100" t="n">
         <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HopwoodMedia</t>
+          <t>dpierce1980</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>yacovbubis</t>
+          <t>WeAreSigma</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C102" t="n">
         <v>2</v>
       </c>
       <c r="D102" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>elieled</t>
+          <t>simonpearson</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C103" t="n">
         <v>2</v>
       </c>
       <c r="D103" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>goodojo</t>
+          <t>cotealexandra11</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C104" t="n">
         <v>2</v>
       </c>
       <c r="D104" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>dlhughes22</t>
+          <t>Rachel0404</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C105" t="n">
         <v>2</v>
       </c>
       <c r="D105" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>omer_chen</t>
+          <t>dannynasah</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C106" t="n">
         <v>2</v>
       </c>
       <c r="D106" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>oferberkovitch</t>
+          <t>martynrevans</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C107" t="n">
         <v>2</v>
       </c>
       <c r="D107" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Rinat_Korbet</t>
+          <t>elletweedy</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C108" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D108" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>eli_azoulay</t>
+          <t>martyn_evans</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C109" t="n">
         <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>StartUpnowfast</t>
+          <t>richardwalks</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C110" t="n">
         <v>2</v>
       </c>
       <c r="D110" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ElegantMonkeys</t>
+          <t>lovekaizen</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C111" t="n">
         <v>2</v>
       </c>
       <c r="D111" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kamiexpressllc</t>
+          <t>danblundell</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C112" t="n">
         <v>2</v>
       </c>
       <c r="D112" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>YossiDahan1</t>
+          <t>carboia</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C113" t="n">
         <v>2</v>
       </c>
       <c r="D113" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BarEinav</t>
+          <t>scttee</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C114" t="n">
         <v>2</v>
       </c>
       <c r="D114" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>xayyapheth</t>
+          <t>NoCarsScott</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C115" t="n">
         <v>2</v>
       </c>
       <c r="D115" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>YElharar</t>
+          <t>GramMcCram</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C116" t="n">
         <v>2</v>
       </c>
       <c r="D116" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>redvsblue_ml</t>
+          <t>techleco</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C117" t="n">
         <v>2</v>
       </c>
       <c r="D117" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TanyaAshkenazi</t>
+          <t>DannyBeales</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C118" t="n">
         <v>2</v>
       </c>
       <c r="D118" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>chrisheyer_</t>
+          <t>rhs</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C119" t="n">
         <v>2</v>
       </c>
       <c r="D119" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EyalAnkri</t>
+          <t>BobMain49</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C120" t="n">
         <v>2</v>
       </c>
       <c r="D120" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TLVGenerator</t>
+          <t>Professorofcool</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C121" t="n">
         <v>2</v>
       </c>
       <c r="D121" t="n">
-        <v>2.4</v>
+        <v>2</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DavidTa98869986</t>
+          <t>char_bone</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C122" t="n">
         <v>2</v>
       </c>
       <c r="D122" t="n">
         <v>2</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CalendarStartup</t>
+          <t>ktmcnl</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C123" t="n">
         <v>2</v>
       </c>
       <c r="D123" t="n">
         <v>2</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>StavErez</t>
+          <t>GTreversPR</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C124" t="n">
         <v>2</v>
       </c>
       <c r="D124" t="n">
         <v>2</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>queenbee69x</t>
+          <t>SamJGray1</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C125" t="n">
         <v>2</v>
       </c>
       <c r="D125" t="n">
         <v>2</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>amitster72</t>
+          <t>merissabrown123</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C126" t="n">
         <v>2</v>
       </c>
       <c r="D126" t="n">
         <v>2</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>LilScar04</t>
+          <t>digitech2020</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C127" t="n">
         <v>2</v>
       </c>
       <c r="D127" t="n">
         <v>2</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HealthierGlobe</t>
+          <t>Mirabai_gg</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C128" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D128" t="n">
-        <v>1.6</v>
+        <v>2</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Oshayr</t>
+          <t>Kath_Cooper_</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>nas4u</t>
+          <t>rob_c_watts</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>giladh</t>
+          <t>GeorgedyolL</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>rcworst</t>
+          <t>softwareforpm</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>justechnologist</t>
+          <t>PeterJBromley</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>goldmanguy</t>
+          <t>jalane81</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>YuliaHorn</t>
+          <t>focampo_</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Irisvalveman70</t>
+          <t>liannemellor</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>mytapwater</t>
+          <t>otherJaneFallon</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CalambaXylem</t>
+          <t>acodeninja</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>AudreGertrude</t>
+          <t>Lizziew68</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>scottli59685974</t>
+          <t>DanielLeakey</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>michalsternberg</t>
+          <t>olga2241</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>yehoshuas</t>
+          <t>cssidhu_27</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>yaronwe</t>
+          <t>Zoe_On_The_Go</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>marmamic</t>
+          <t>OfficeOfWilson</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>yeshayad</t>
+          <t>MendoncaPen</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>digitalhealthxx</t>
+          <t>Leanandagile</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>fadi20020</t>
+          <t>jessicaisace</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>NissanYaron</t>
+          <t>christophjonson</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>KipaNews</t>
+          <t>FrancisOMcgowan</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Symbian4</t>
+          <t>bellamyc39</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Amitadjami1</t>
+          <t>basharov_</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MDanielLevi</t>
+          <t>JessicaLond0n</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>B5ssss4</t>
+          <t>lgxlyh</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>bestsellrz</t>
+          <t>Techyrey</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ofri7777</t>
+          <t>farah_khan5</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>YanivCohen13</t>
+          <t>_Delivery_Dave</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Bp00754451</t>
+          <t>emily_ops</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Richard64516485</t>
+          <t>GiammaCarioca</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>YHuMEk9msuZc5in</t>
+          <t>ParmaLaRossa</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>shai_maymon</t>
+          <t>PelagicDev</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>trgzp</t>
+          <t>acifani_</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DM5yunwFaUpkaF3</t>
+          <t>HeidyKhlaaf</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>shakedLeader</t>
+          <t>supercontractUK</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163" t="n">
+        <v>1.846153846153846</v>
+      </c>
+      <c r="E163" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>eyal_yemini</t>
+          <t>UKGovCamp</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>yanivharary</t>
+          <t>pixeltrix</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>chen_atiass</t>
+          <t>chrisgrice</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ComstockRoyalty</t>
+          <t>saulcozens</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>yossimi</t>
+          <t>dreas1</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E168" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>YitzikCrombie</t>
+          <t>TammyWallace2</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>kinneretday</t>
+          <t>pataruco</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ItaiTerner</t>
+          <t>JohnOwenNixon</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E171" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>emzemlak</t>
+          <t>d79design</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>nirzabari</t>
+          <t>shaun_gomm</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ItzikOz</t>
+          <t>RoseTada</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>harush_yehuda</t>
+          <t>seun_bambo</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>HaddadYossef</t>
+          <t>ajbarr17</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>DaddyAshers</t>
+          <t>michaelkbrodie</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SnenihWael</t>
+          <t>RTaylor81</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>OdedSoroka</t>
+          <t>aladdinsmrs</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>yaaracohen87</t>
+          <t>dncnmckn</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>matanf1992</t>
+          <t>AlecDudson</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Ganza_Band</t>
+          <t>martav__</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MadgeraIL</t>
+          <t>chrislydemann</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>test_mav</t>
+          <t>Gabbibility</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>shaydavid11</t>
+          <t>maggyburnsy</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>themulidavid</t>
+          <t>olivejardigital</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Mikismsb</t>
+          <t>JoeHughesDev</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Uri724Urimo</t>
+          <t>dodoodem</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ypilat101</t>
+          <t>tanepiper</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1.692307692307692</v>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ghcx4528</t>
+          <t>mattbee</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1.538461538461539</v>
+      </c>
+      <c r="E190" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>basboeT5EFGZhW4</t>
+          <t>jalbam1984</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1.538461538461539</v>
+      </c>
+      <c r="E191" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>mariliagabihol1</t>
+          <t>mz__kev</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1.538461538461539</v>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>tlvventures</t>
+          <t>BQormosh</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>1.538461538461539</v>
+      </c>
+      <c r="E193" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>fmzChS9Af6PV60X</t>
+          <t>AQuietSomeone</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>1.538461538461539</v>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>21metalworksho2</t>
+          <t>chriswearshats</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1.538461538461539</v>
+      </c>
+      <c r="E195" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>uri_yashar</t>
+          <t>AfuaDanquah1</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>1.538461538461539</v>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>LydiaBenady</t>
+          <t>Nueard</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>1.538461538461539</v>
+      </c>
+      <c r="E197" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MIJventures</t>
+          <t>Jeremy_d</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1.384615384615385</v>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>TomerJLM</t>
+          <t>eggsy84</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>1.384615384615385</v>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>rkia_achik</t>
+          <t>helloxheather</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1.384615384615385</v>
+      </c>
+      <c r="E200" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>atobeAccel</t>
+          <t>silky098</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>1.384615384615385</v>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>jeel_4518</t>
+          <t>LewishollingsIT</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>1.384615384615385</v>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>AgRobics</t>
+          <t>techreturners</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>1.384615384615385</v>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Digital_Clay</t>
+          <t>napolux</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D204" t="n">
+        <v>1.384615384615385</v>
+      </c>
+      <c r="E204" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>omrirulf</t>
+          <t>SearchableLuke</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>1.230769230769231</v>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>israeliinsyria</t>
+          <t>zacd_nlon</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>7</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>1.076923076923077</v>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>docmoish</t>
+          <t>crataegustess</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C207" t="n">
         <v>0</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>fares581979</t>
+          <t>katsexton8</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>regevavner86</t>
+          <t>tomtaylortech</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C209" t="n">
         <v>0</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Handy_Bag_co</t>
+          <t>LewisDaleUK</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C210" t="n">
         <v>0</v>
       </c>
       <c r="D210" t="n">
         <v>0</v>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>seoheronews</t>
+          <t>heymikemiller</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C211" t="n">
         <v>0</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
+      </c>
+      <c r="E211" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SquadDelta1</t>
+          <t>rup_kal</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
+      </c>
+      <c r="E212" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t9YxZGROANahw7p</t>
+          <t>DavidWare_HE</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>amshaby1</t>
+          <t>cab_wab_</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>JosefHabas</t>
+          <t>100NaaM</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
       </c>
       <c r="D215" t="n">
         <v>0</v>
+      </c>
+      <c r="E215" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>AdamaPoriya</t>
+          <t>GeorgiaUoBNurse</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
+      </c>
+      <c r="E216" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BeriRozenberg</t>
+          <t>ImHuYorks</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C217" t="n">
         <v>0</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
+      </c>
+      <c r="E217" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>WorldTrvlImage</t>
+          <t>alanlowe79</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C218" t="n">
         <v>0</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
+      </c>
+      <c r="E218" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>sharabati_hazem</t>
+          <t>Danieldaviesfr1</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C219" t="n">
         <v>0</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
+      </c>
+      <c r="E219" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>AkkashRaj1</t>
+          <t>GillB64854704</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
       </c>
       <c r="D220" t="n">
         <v>0</v>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>serpebk</t>
+          <t>isatou95271277</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
       </c>
       <c r="D221" t="n">
         <v>0</v>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>PeOww0</t>
+          <t>lefebre_marie</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>LiveTripCo</t>
+          <t>Amina92278180</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Soapy_Care</t>
+          <t>rosieroff2</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
+      </c>
+      <c r="E224" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>RefaelShamir</t>
+          <t>_jesslee_</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
       </c>
       <c r="D225" t="n">
         <v>0</v>
+      </c>
+      <c r="E225" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>F_Theatre_fr</t>
+          <t>ryan_globalres</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
+      </c>
+      <c r="E226" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>anatgilen</t>
+          <t>CranfieldNaomi</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
+      </c>
+      <c r="E227" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AmitSharon5</t>
+          <t>p3achi3</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
+      </c>
+      <c r="E228" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ShamirYehoshua</t>
+          <t>HowieNYC</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
+      </c>
+      <c r="E229" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>GarabiImen</t>
+          <t>RikCunningham</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
+      </c>
+      <c r="E230" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>lovebaby0200320</t>
+          <t>FalleniAndrea</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
+      </c>
+      <c r="E231" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Yairishalev</t>
+          <t>linkapr</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
+      </c>
+      <c r="E232" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>mtova2003</t>
+          <t>hunting4best</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
       </c>
       <c r="D233" t="n">
         <v>0</v>
+      </c>
+      <c r="E233" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>EldadPostan</t>
+          <t>ShakeelAnjumX</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Fernas94164831</t>
+          <t>aruntalkstech</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
       </c>
       <c r="D235" t="n">
         <v>0</v>
+      </c>
+      <c r="E235" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>lll40908200</t>
+          <t>James330001</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
       </c>
       <c r="D236" t="n">
         <v>0</v>
+      </c>
+      <c r="E236" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>SegreDaniel</t>
+          <t>edvinsantonovs</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
+      </c>
+      <c r="E237" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>AriellaRosen</t>
+          <t>GabriellaMuraca</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
+      </c>
+      <c r="E238" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>TanishaBlake14</t>
+          <t>Newneomon</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
       </c>
       <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>cioneilpancione</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>13</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Tech_Inept</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>13</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>DanieleBart0</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>13</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Seo_Race</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>13</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>cloudnatived</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>13</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>simonesanfradev</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>13</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>0xF00DBABE</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>13</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>zarariccardo1</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>13</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>DanijelaJs</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>13</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>hackerhodl</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>13</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>JamesJo14115513</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>13</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0</v>
+      </c>
+      <c r="E250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>DAHIANA32044723</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>13</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0</v>
+      </c>
+      <c r="E251" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>MariewoqE</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>13</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>pietro_degrazia</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>13</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>JyotiGarg26</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>13</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>AlanAtLogikk</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>13</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>abdulla88150251</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>13</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>IsratJa88197296</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>13</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E257" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>UltimaRevenge</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>13</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0</v>
+      </c>
+      <c r="E258" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>MonicaEasyMoney</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>13</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0</v>
+      </c>
+      <c r="E259" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>dbappdev</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>13</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>SavanaShows</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>13</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>GamesWho1</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>13</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>brimdeep</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>13</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>RecensioniMini</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>13</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>VSperti7</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>13</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ExpanxionRec</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>13</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>scimon</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>13</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ezu</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>13</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>isaac_abraham</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>13</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>laurabolletta</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>13</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>rafalbielec</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>13</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>bhaidar</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>13</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>stefanoric</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>13</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>cyberprune</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>13</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0</v>
+      </c>
+      <c r="E274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Hetal_Patel</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>13</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0</v>
+      </c>
+      <c r="E275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>rmlopez</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>13</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>abrunst</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>13</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>jellymalin</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>13</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>lukadotnet</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>13</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>gBico</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>13</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>AHussey</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>13</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>dom_mason</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>13</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>pedoublety</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>13</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0</v>
+      </c>
+      <c r="E283" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Shecia</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>13</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>paharihacker</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>13</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0</v>
+      </c>
+      <c r="E285" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>palutz</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>13</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0</v>
+      </c>
+      <c r="E286" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>pms1969</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>13</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0</v>
+      </c>
+      <c r="E287" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>javiertg</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>13</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0</v>
+      </c>
+      <c r="E288" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>alfacanismajor</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>13</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0</v>
+      </c>
+      <c r="E289" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>ajnsit</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>13</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>robtaylor78</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>13</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>TeeeeJaaaaY</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>13</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>AnyVan</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>13</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>KlaidLiadon</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>13</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>JohnEntApps</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>13</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Aprimez</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>13</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0</v>
+      </c>
+      <c r="E296" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>nazaretkazarian</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>13</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>R2RLondon</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>13</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0</v>
+      </c>
+      <c r="E298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>fab1dev</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>13</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0</v>
+      </c>
+      <c r="E299" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Vinsnet</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>13</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0</v>
+      </c>
+      <c r="E300" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>kinne507</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>13</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0</v>
+      </c>
+      <c r="E301" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Thoriumi</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>13</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0</v>
+      </c>
+      <c r="E302" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>rflechner</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>13</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0</v>
+      </c>
+      <c r="E303" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>adam_barley</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>13</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0</v>
+      </c>
+      <c r="E304" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>YunoJunoHQ</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>13</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0</v>
+      </c>
+      <c r="E305" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>christinebardoe</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>13</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0</v>
+      </c>
+      <c r="E306" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>francmichal</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>13</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0</v>
+      </c>
+      <c r="E307" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>klettier</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>13</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0</v>
+      </c>
+      <c r="E308" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>kekyo2</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>13</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0</v>
+      </c>
+      <c r="E309" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>tomascott</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>13</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Ve_HeadQuarters</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>13</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0</v>
+      </c>
+      <c r="E311" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>vratsalis</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>13</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0</v>
+      </c>
+      <c r="E312" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>classoutfit</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>13</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0</v>
+      </c>
+      <c r="E313" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>KurtRMueller</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>13</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0</v>
+      </c>
+      <c r="E314" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>THOMASMODENEIS</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>13</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0</v>
+      </c>
+      <c r="E315" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>g_sohal</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>13</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0</v>
+      </c>
+      <c r="E316" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>angiegrill</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>13</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0</v>
+      </c>
+      <c r="E317" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>alistaircane66</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>13</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0</v>
+      </c>
+      <c r="E318" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>tirolobrasil</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>13</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0</v>
+      </c>
+      <c r="E319" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>_targz_</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>13</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0</v>
+      </c>
+      <c r="E320" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>NickoBennett</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>13</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0</v>
+      </c>
+      <c r="E321" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>finnneuik</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>13</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0</v>
+      </c>
+      <c r="E322" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>honeymariahbest</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>13</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E323" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>TownFishLondon</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>13</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0</v>
+      </c>
+      <c r="E324" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Simon_JF</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>13</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0</v>
+      </c>
+      <c r="E325" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Thomas_Crabtree</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>13</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0</v>
+      </c>
+      <c r="E326" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>ellie_hubble</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>13</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0</v>
+      </c>
+      <c r="E327" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>mrblaydes</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>13</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0</v>
+      </c>
+      <c r="E328" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>SimoneWilliams9</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>13</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0</v>
+      </c>
+      <c r="E329" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>malformedfawn</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>13</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0</v>
+      </c>
+      <c r="E330" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>chris__pecoraro</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>13</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Alexandrede383</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>13</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0</v>
+      </c>
+      <c r="E332" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>pimunozg</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>13</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0</v>
+      </c>
+      <c r="E333" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>SkyHelpTeam</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>13</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0</v>
+      </c>
+      <c r="E334" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>foxyjackfox</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>13</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0</v>
+      </c>
+      <c r="E335" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>EmiliaU93</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>13</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0</v>
+      </c>
+      <c r="E336" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>oscar33son</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>13</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0</v>
+      </c>
+      <c r="E337" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>SelinaParmar</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>13</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0</v>
+      </c>
+      <c r="E338" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>_GarethKeenan</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>13</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+      <c r="E339" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>kasperekp</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>13</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+      <c r="D340" t="n">
+        <v>0</v>
+      </c>
+      <c r="E340" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>dimosr7</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>13</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0</v>
+      </c>
+      <c r="E341" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>chespinoza_</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>13</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0</v>
+      </c>
+      <c r="E342" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>EileenMcKenna92</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>13</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
+      <c r="D343" t="n">
+        <v>0</v>
+      </c>
+      <c r="E343" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>tjbutler5</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>13</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+      <c r="D344" t="n">
+        <v>0</v>
+      </c>
+      <c r="E344" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>welfordian</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>13</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0</v>
+      </c>
+      <c r="E345" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>chriseyre2000</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>13</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+      <c r="E346" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>FreyaLucas</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>13</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>IacobucciMatera</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>13</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0</v>
+      </c>
+      <c r="E348" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Nischal012</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>13</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+      <c r="E349" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>neilfenwick</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>13</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0</v>
+      </c>
+      <c r="E350" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>mksglu</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>13</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+      <c r="E351" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>sigodden</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>13</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0</v>
+      </c>
+      <c r="D352" t="n">
+        <v>0</v>
+      </c>
+      <c r="E352" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>ibrahimgrses</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>13</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0</v>
+      </c>
+      <c r="E353" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>AviAvni3</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>13</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0</v>
+      </c>
+      <c r="E354" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>happystartups</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>13</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0</v>
+      </c>
+      <c r="E355" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>ThinkersHQ</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>13</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0</v>
+      </c>
+      <c r="E356" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>alex_R_78</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>13</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+      <c r="E357" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>MuscleFoodUK</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>13</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
+      <c r="E358" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>movebubble</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>13</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0</v>
+      </c>
+      <c r="E359" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Barbara_73740</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>13</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0</v>
+      </c>
+      <c r="E360" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>neela_ahmed</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>13</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0</v>
+      </c>
+      <c r="E361" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>JonpRivers</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>13</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0</v>
+      </c>
+      <c r="E362" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>WorkAngel</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>13</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0</v>
+      </c>
+      <c r="E363" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>ycaille_</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>13</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0</v>
+      </c>
+      <c r="D364" t="n">
+        <v>0</v>
+      </c>
+      <c r="E364" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>RebeccaBusiness</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>13</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0</v>
+      </c>
+      <c r="E365" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Mary_con1</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>13</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0</v>
+      </c>
+      <c r="E366" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>localistico</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>13</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0</v>
+      </c>
+      <c r="E367" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Hubble</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>13</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0</v>
+      </c>
+      <c r="E368" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>bmustata</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>13</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0</v>
+      </c>
+      <c r="E369" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>GeorgiaRanson1</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>13</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
+      <c r="E370" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>lemm_it</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>13</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0</v>
+      </c>
+      <c r="E371" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>gini_ionita</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>13</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0</v>
+      </c>
+      <c r="E372" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Deltabets</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>13</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0</v>
+      </c>
+      <c r="E373" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>ashok_arya_83</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>13</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0</v>
+      </c>
+      <c r="E374" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>flipjsio</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>13</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0</v>
+      </c>
+      <c r="E375" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Wade_VG</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>13</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0</v>
+      </c>
+      <c r="E376" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>katerogerson4</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>13</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0</v>
+      </c>
+      <c r="E377" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>MarkSwainLSH</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>13</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0</v>
+      </c>
+      <c r="E378" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>NovaCardin</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>13</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0</v>
+      </c>
+      <c r="E379" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Shopcinity</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>13</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0</v>
+      </c>
+      <c r="E380" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Ellie_Breden</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>13</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0</v>
+      </c>
+      <c r="E381" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Themarketmunch</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>13</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0</v>
+      </c>
+      <c r="E382" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>frotaelsubos</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>13</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+      <c r="E383" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>BoushApp</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>13</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
+      <c r="E384" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>icenodes</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>13</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
+      <c r="E385" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>ben_fela</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>13</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+      <c r="E386" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>MapandMove</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>13</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0</v>
+      </c>
+      <c r="E387" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>GondolaFlights</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>13</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0</v>
+      </c>
+      <c r="E388" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>homyze</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>13</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0</v>
+      </c>
+      <c r="E389" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>trmrecruitment</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>13</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0</v>
+      </c>
+      <c r="E390" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>PushHarderDaily</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>13</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0</v>
+      </c>
+      <c r="E391" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>storescottsdale</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>13</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+      <c r="E392" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>toptipapp</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>13</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0</v>
+      </c>
+      <c r="E393" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>linvestmentl</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>13</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0</v>
+      </c>
+      <c r="E394" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>LilithsTravel</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>13</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0</v>
+      </c>
+      <c r="D395" t="n">
+        <v>0</v>
+      </c>
+      <c r="E395" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>followTheAJ</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>13</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0</v>
+      </c>
+      <c r="E396" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>kmls90</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>13</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0</v>
+      </c>
+      <c r="E397" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>LauraOvoTech</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>13</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0</v>
+      </c>
+      <c r="E398" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Quad_Recruit</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>13</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0</v>
+      </c>
+      <c r="E399" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>meet_cleo</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>13</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0</v>
+      </c>
+      <c r="E400" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Kiehl_Mackenzie</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>13</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0</v>
+      </c>
+      <c r="E401" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>bettyrhamilton4</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>13</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0</v>
+      </c>
+      <c r="E402" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>PervOnHer</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>13</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0</v>
+      </c>
+      <c r="E403" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>moamerlol</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>13</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0</v>
+      </c>
+      <c r="E404" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>MargueriteJDav2</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>13</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0</v>
+      </c>
+      <c r="E405" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>NickyWrightson</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>13</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0</v>
+      </c>
+      <c r="D406" t="n">
+        <v>0</v>
+      </c>
+      <c r="E406" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>swe_trust</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>13</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0</v>
+      </c>
+      <c r="E407" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>one4allsoftware</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>13</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0</v>
+      </c>
+      <c r="E408" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Utaxely</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>13</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0</v>
+      </c>
+      <c r="E409" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>heymonogram</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>13</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0</v>
+      </c>
+      <c r="E410" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>SummerSessionUK</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>13</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0</v>
+      </c>
+      <c r="E411" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>KasiaInThe</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>13</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0</v>
+      </c>
+      <c r="E412" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>erdem_uslu_</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>13</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0</v>
+      </c>
+      <c r="E413" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>bodarev_yurii</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>13</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0</v>
+      </c>
+      <c r="E414" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>cakedropldn</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>13</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
+      <c r="E415" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>SPYSPORTZ3</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>13</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0</v>
+      </c>
+      <c r="E416" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Retro_Rovers</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>13</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0</v>
+      </c>
+      <c r="D417" t="n">
+        <v>0</v>
+      </c>
+      <c r="E417" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>bold_identities</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>13</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0</v>
+      </c>
+      <c r="D418" t="n">
+        <v>0</v>
+      </c>
+      <c r="E418" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>_tombusby</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>13</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0</v>
+      </c>
+      <c r="E419" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>earlesean</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>13</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0</v>
+      </c>
+      <c r="E420" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>jennies_mia</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>13</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0</v>
+      </c>
+      <c r="E421" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>ritimofeeva6092</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>13</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0</v>
+      </c>
+      <c r="E422" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>ansergeeva18467</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>13</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0</v>
+      </c>
+      <c r="E423" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>johnson50478979</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>13</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0</v>
+      </c>
+      <c r="E424" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>internster</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>13</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0</v>
+      </c>
+      <c r="E425" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>FootyIndexScout</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>13</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0</v>
+      </c>
+      <c r="E426" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>quocminh20160</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>13</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0</v>
+      </c>
+      <c r="E427" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>tanzaniasafi</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>13</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0</v>
+      </c>
+      <c r="E428" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>dnajuices</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>13</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0</v>
+      </c>
+      <c r="D429" t="n">
+        <v>0</v>
+      </c>
+      <c r="E429" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>roarykelly</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>13</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0</v>
+      </c>
+      <c r="D430" t="n">
+        <v>0</v>
+      </c>
+      <c r="E430" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>TechMgrWeekly</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>13</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0</v>
+      </c>
+      <c r="D431" t="n">
+        <v>0</v>
+      </c>
+      <c r="E431" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>BharatKardile</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>13</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0</v>
+      </c>
+      <c r="E432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>GLKingBeauty</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>13</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0</v>
+      </c>
+      <c r="E433" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>1stPhonesRepair</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>13</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0</v>
+      </c>
+      <c r="E434" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>progsirajul</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>13</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0</v>
+      </c>
+      <c r="E435" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>kieronxpertise</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>13</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0</v>
+      </c>
+      <c r="D436" t="n">
+        <v>0</v>
+      </c>
+      <c r="E436" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>GlobalNewsDay1</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>13</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0</v>
+      </c>
+      <c r="D437" t="n">
+        <v>0</v>
+      </c>
+      <c r="E437" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>raghuppura23</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>13</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0</v>
+      </c>
+      <c r="D438" t="n">
+        <v>0</v>
+      </c>
+      <c r="E438" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>upkeepahome</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>13</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0</v>
+      </c>
+      <c r="E439" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>MeralMe06944054</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>13</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0</v>
+      </c>
+      <c r="E440" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Sleepy_Capital</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>13</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0</v>
+      </c>
+      <c r="E441" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>InfoHuddle</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>13</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0</v>
+      </c>
+      <c r="E442" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>RRPropertiesCR</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>13</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0</v>
+      </c>
+      <c r="D443" t="n">
+        <v>0</v>
+      </c>
+      <c r="E443" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>AliBoumnadi</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>13</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0</v>
+      </c>
+      <c r="D444" t="n">
+        <v>0</v>
+      </c>
+      <c r="E444" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>ZsuzsannaVirag</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>13</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0</v>
+      </c>
+      <c r="D445" t="n">
+        <v>0</v>
+      </c>
+      <c r="E445" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Leonmapemba</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>13</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0</v>
+      </c>
+      <c r="E446" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>_yumxyz</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>13</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0</v>
+      </c>
+      <c r="E447" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Anshumaniac12</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>13</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0</v>
+      </c>
+      <c r="D448" t="n">
+        <v>0</v>
+      </c>
+      <c r="E448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>udemycourses_</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>13</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0</v>
+      </c>
+      <c r="D449" t="n">
+        <v>0</v>
+      </c>
+      <c r="E449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>goseetalents</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>13</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0</v>
+      </c>
+      <c r="D450" t="n">
+        <v>0</v>
+      </c>
+      <c r="E450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>MachinecodeSoto</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>13</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0</v>
+      </c>
+      <c r="E451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>fashionspired</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>13</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0</v>
+      </c>
+      <c r="E452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Kanakaraju1988</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>13</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0</v>
+      </c>
+      <c r="D453" t="n">
+        <v>0</v>
+      </c>
+      <c r="E453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>TeamVyve</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>13</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0</v>
+      </c>
+      <c r="D454" t="n">
+        <v>0</v>
+      </c>
+      <c r="E454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>RicochetEJ96</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>13</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0</v>
+      </c>
+      <c r="D455" t="n">
+        <v>0</v>
+      </c>
+      <c r="E455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>LewisMills__</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>13</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0</v>
+      </c>
+      <c r="D456" t="n">
+        <v>0</v>
+      </c>
+      <c r="E456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>visualtesting</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>13</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Rachaelray018</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>13</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0</v>
+      </c>
+      <c r="E458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>jsandapps</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>13</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0</v>
+      </c>
+      <c r="D459" t="n">
+        <v>0</v>
+      </c>
+      <c r="E459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>rita20083132538</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>13</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0</v>
+      </c>
+      <c r="D460" t="n">
+        <v>0</v>
+      </c>
+      <c r="E460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>SeymourJames8</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>13</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0</v>
+      </c>
+      <c r="D461" t="n">
+        <v>0</v>
+      </c>
+      <c r="E461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>ThaverDr</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>13</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0</v>
+      </c>
+      <c r="D462" t="n">
+        <v>0</v>
+      </c>
+      <c r="E462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>dystopian_rec</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>13</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0</v>
+      </c>
+      <c r="E463" t="b">
         <v>0</v>
       </c>
     </row>

--- a/luck_generation_data_frame.xlsx
+++ b/luck_generation_data_frame.xlsx
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9784954614449578</v>
+        <v>0.7062216866978064</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7217424244921065</v>
+        <v>1.021977146959155</v>
       </c>
       <c r="D91" t="n">
-        <v>1.700237885937064</v>
+        <v>1.728198833656962</v>
       </c>
       <c r="E91" t="n">
         <v>46</v>
@@ -3845,13 +3845,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9770125183673897</v>
+        <v>0.7055079710570181</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7221074016901422</v>
+        <v>1.023528338890706</v>
       </c>
       <c r="D92" t="n">
-        <v>1.699119920057532</v>
+        <v>1.729036309947724</v>
       </c>
       <c r="E92" t="n">
         <v>43</v>
@@ -3883,13 +3883,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.9733349348192527</v>
+        <v>0.7037364516598987</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7230157127675499</v>
+        <v>1.02739556983609</v>
       </c>
       <c r="D93" t="n">
-        <v>1.696350647586803</v>
+        <v>1.731132021495989</v>
       </c>
       <c r="E93" t="n">
         <v>37</v>
@@ -3921,13 +3921,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.9733349348192527</v>
+        <v>0.7037364516598987</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7230157127675499</v>
+        <v>1.02739556983609</v>
       </c>
       <c r="D94" t="n">
-        <v>1.696350647586803</v>
+        <v>1.731132021495989</v>
       </c>
       <c r="E94" t="n">
         <v>37</v>
@@ -3959,13 +3959,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.9733349348192527</v>
+        <v>0.7037364516598987</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7230157127675499</v>
+        <v>1.02739556983609</v>
       </c>
       <c r="D95" t="n">
-        <v>1.696350647586803</v>
+        <v>1.731132021495989</v>
       </c>
       <c r="E95" t="n">
         <v>37</v>
@@ -3997,13 +3997,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.9682566771439105</v>
+        <v>0.701286544820265</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7242775199742143</v>
+        <v>1.032783995819914</v>
       </c>
       <c r="D96" t="n">
-        <v>1.692534197118125</v>
+        <v>1.734070540640179</v>
       </c>
       <c r="E96" t="n">
         <v>31</v>
@@ -4035,13 +4035,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.9682566771439105</v>
+        <v>0.701286544820265</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7242775199742143</v>
+        <v>1.032783995819914</v>
       </c>
       <c r="D97" t="n">
-        <v>1.692534197118125</v>
+        <v>1.734070540640179</v>
       </c>
       <c r="E97" t="n">
         <v>31</v>
@@ -4073,13 +4073,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9682566771439105</v>
+        <v>0.701286544820265</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7242775199742143</v>
+        <v>1.032783995819914</v>
       </c>
       <c r="D98" t="n">
-        <v>1.692534197118125</v>
+        <v>1.734070540640179</v>
       </c>
       <c r="E98" t="n">
         <v>31</v>
@@ -4111,13 +4111,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.9682566771439105</v>
+        <v>0.701286544820265</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7242775199742143</v>
+        <v>1.032783995819914</v>
       </c>
       <c r="D99" t="n">
-        <v>1.692534197118125</v>
+        <v>1.734070540640179</v>
       </c>
       <c r="E99" t="n">
         <v>31</v>
@@ -4149,13 +4149,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.9682566771439105</v>
+        <v>0.701286544820265</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7242775199742143</v>
+        <v>1.032783995819914</v>
       </c>
       <c r="D100" t="n">
-        <v>1.692534197118125</v>
+        <v>1.734070540640179</v>
       </c>
       <c r="E100" t="n">
         <v>31</v>
@@ -4187,13 +4187,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.96491594437237</v>
+        <v>0.6996725373751304</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7251124219221319</v>
+        <v>1.036359701414666</v>
       </c>
       <c r="D101" t="n">
-        <v>1.690028366294502</v>
+        <v>1.736032238789797</v>
       </c>
       <c r="E101" t="n">
         <v>28</v>
@@ -4225,13 +4225,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9607894391523232</v>
+        <v>0.697676326071031</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7261490370736909</v>
+        <v>1.040810774192388</v>
       </c>
       <c r="D102" t="n">
-        <v>1.686938476226014</v>
+        <v>1.738487100263419</v>
       </c>
       <c r="E102" t="n">
         <v>25</v>
@@ -4263,13 +4263,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.9607894391523232</v>
+        <v>0.697676326071031</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7261490370736909</v>
+        <v>1.040810774192388</v>
       </c>
       <c r="D103" t="n">
-        <v>1.686938476226014</v>
+        <v>1.738487100263419</v>
       </c>
       <c r="E103" t="n">
         <v>25</v>
@@ -4301,13 +4301,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.9607894391523232</v>
+        <v>0.697676326071031</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7261490370736909</v>
+        <v>1.040810774192388</v>
       </c>
       <c r="D104" t="n">
-        <v>1.686938476226014</v>
+        <v>1.738487100263419</v>
       </c>
       <c r="E104" t="n">
         <v>50</v>
@@ -4339,13 +4339,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.9583394886604754</v>
+        <v>0.6964898019931913</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7267672993071735</v>
+        <v>1.043471558703853</v>
       </c>
       <c r="D105" t="n">
-        <v>1.685106787967649</v>
+        <v>1.739961360697045</v>
       </c>
       <c r="E105" t="n">
         <v>47</v>
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.9523901680108287</v>
+        <v>0.6936042968508962</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7282774645811021</v>
+        <v>1.049989839866375</v>
       </c>
       <c r="D106" t="n">
-        <v>1.680667632591931</v>
+        <v>1.743594136717271</v>
       </c>
       <c r="E106" t="n">
         <v>41</v>
@@ -4415,13 +4415,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.9523901680108287</v>
+        <v>0.6936042968508962</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7282774645811021</v>
+        <v>1.049989839866375</v>
       </c>
       <c r="D107" t="n">
-        <v>1.680667632591931</v>
+        <v>1.743594136717271</v>
       </c>
       <c r="E107" t="n">
         <v>41</v>
@@ -4453,13 +4453,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9487294800164372</v>
+        <v>0.6918258252705172</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7292129525252351</v>
+        <v>1.054041242591802</v>
       </c>
       <c r="D108" t="n">
-        <v>1.677942432541672</v>
+        <v>1.74586706786232</v>
       </c>
       <c r="E108" t="n">
         <v>38</v>
@@ -4491,13 +4491,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.9487294800164372</v>
+        <v>0.6918258252705172</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7292129525252351</v>
+        <v>1.054041242591802</v>
       </c>
       <c r="D109" t="n">
-        <v>1.677942432541672</v>
+        <v>1.74586706786232</v>
       </c>
       <c r="E109" t="n">
         <v>38</v>
@@ -4529,13 +4529,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.9487294800164372</v>
+        <v>0.6918258252705172</v>
       </c>
       <c r="C110" t="n">
-        <v>0.7292129525252351</v>
+        <v>1.054041242591802</v>
       </c>
       <c r="D110" t="n">
-        <v>1.677942432541672</v>
+        <v>1.74586706786232</v>
       </c>
       <c r="E110" t="n">
         <v>38</v>
@@ -4567,13 +4567,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.9444591369948698</v>
+        <v>0.6897482718033084</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7303103382513573</v>
+        <v>1.058807057742967</v>
       </c>
       <c r="D111" t="n">
-        <v>1.674769475246227</v>
+        <v>1.748555329546276</v>
       </c>
       <c r="E111" t="n">
         <v>35</v>
@@ -4605,13 +4605,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.9444591369948698</v>
+        <v>0.6897482718033084</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7303103382513573</v>
+        <v>1.058807057742967</v>
       </c>
       <c r="D112" t="n">
-        <v>1.674769475246227</v>
+        <v>1.748555329546276</v>
       </c>
       <c r="E112" t="n">
         <v>35</v>
@@ -4643,13 +4643,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.9444591369948698</v>
+        <v>0.6897482718033084</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7303103382513573</v>
+        <v>1.058807057742967</v>
       </c>
       <c r="D113" t="n">
-        <v>1.674769475246227</v>
+        <v>1.748555329546276</v>
       </c>
       <c r="E113" t="n">
         <v>35</v>
@@ -4681,13 +4681,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.9394130628134758</v>
+        <v>0.6872892787909722</v>
       </c>
       <c r="C114" t="n">
-        <v>0.7316156289466418</v>
+        <v>1.064494458917859</v>
       </c>
       <c r="D114" t="n">
-        <v>1.671028691760118</v>
+        <v>1.751783737708831</v>
       </c>
       <c r="E114" t="n">
         <v>32</v>
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9394130628134758</v>
+        <v>0.6872892787909722</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7316156289466418</v>
+        <v>1.064494458917859</v>
       </c>
       <c r="D115" t="n">
-        <v>1.671028691760118</v>
+        <v>1.751783737708831</v>
       </c>
       <c r="E115" t="n">
         <v>32</v>
@@ -4757,13 +4757,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.9333588643117228</v>
+        <v>0.6843332004383634</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7331940870813973</v>
+        <v>1.071399263709163</v>
       </c>
       <c r="D116" t="n">
-        <v>1.66655295139312</v>
+        <v>1.755732464147526</v>
       </c>
       <c r="E116" t="n">
         <v>29</v>
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.9333588643117228</v>
+        <v>0.6843332004383634</v>
       </c>
       <c r="C117" t="n">
-        <v>0.7331940870813973</v>
+        <v>1.071399263709163</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66655295139312</v>
+        <v>1.755732464147526</v>
       </c>
       <c r="E117" t="n">
         <v>29</v>
@@ -4833,13 +4833,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.925961078642316</v>
+        <v>0.6807123983233854</v>
       </c>
       <c r="C118" t="n">
-        <v>0.7351414805916845</v>
+        <v>1.079958999428187</v>
       </c>
       <c r="D118" t="n">
-        <v>1.661102559234001</v>
+        <v>1.760671397751572</v>
       </c>
       <c r="E118" t="n">
         <v>26</v>
@@ -4871,13 +4871,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.925961078642316</v>
+        <v>0.6807123983233854</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7351414805916845</v>
+        <v>1.079958999428187</v>
       </c>
       <c r="D119" t="n">
-        <v>1.661102559234001</v>
+        <v>1.760671397751572</v>
       </c>
       <c r="E119" t="n">
         <v>26</v>
@@ -4909,13 +4909,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.925961078642316</v>
+        <v>0.6807123983233854</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7351414805916845</v>
+        <v>1.079958999428187</v>
       </c>
       <c r="D120" t="n">
-        <v>1.661102559234001</v>
+        <v>1.760671397751572</v>
       </c>
       <c r="E120" t="n">
         <v>39</v>
@@ -4947,13 +4947,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.925961078642316</v>
+        <v>0.6807123983233854</v>
       </c>
       <c r="C121" t="n">
-        <v>0.7351414805916845</v>
+        <v>1.079958999428187</v>
       </c>
       <c r="D121" t="n">
-        <v>1.661102559234001</v>
+        <v>1.760671397751572</v>
       </c>
       <c r="E121" t="n">
         <v>26</v>
@@ -4985,13 +4985,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.925961078642316</v>
+        <v>0.6807123983233854</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7351414805916845</v>
+        <v>1.079958999428187</v>
       </c>
       <c r="D122" t="n">
-        <v>1.661102559234001</v>
+        <v>1.760671397751572</v>
       </c>
       <c r="E122" t="n">
         <v>26</v>
@@ -5023,13 +5023,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.9167169520254864</v>
+        <v>0.6761743325317475</v>
       </c>
       <c r="C123" t="n">
-        <v>0.7376042638218265</v>
+        <v>1.090849250458934</v>
       </c>
       <c r="D123" t="n">
-        <v>1.654321215847313</v>
+        <v>1.767023582990681</v>
       </c>
       <c r="E123" t="n">
         <v>46</v>
@@ -5061,13 +5061,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.9131007162822624</v>
+        <v>0.6743949274217548</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7385767149187981</v>
+        <v>1.095169439874664</v>
       </c>
       <c r="D124" t="n">
-        <v>1.65167743120106</v>
+        <v>1.769564367296419</v>
       </c>
       <c r="E124" t="n">
         <v>33</v>
@@ -5099,13 +5099,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.9131007162822624</v>
+        <v>0.6743949274217548</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7385767149187981</v>
+        <v>1.095169439874664</v>
       </c>
       <c r="D125" t="n">
-        <v>1.65167743120106</v>
+        <v>1.769564367296419</v>
       </c>
       <c r="E125" t="n">
         <v>33</v>
@@ -5137,13 +5137,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9131007162822624</v>
+        <v>0.6743949274217548</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7385767149187981</v>
+        <v>1.095169439874664</v>
       </c>
       <c r="D126" t="n">
-        <v>1.65167743120106</v>
+        <v>1.769564367296419</v>
       </c>
       <c r="E126" t="n">
         <v>33</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.9131007162822624</v>
+        <v>0.6743949274217548</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7385767149187981</v>
+        <v>1.095169439874664</v>
       </c>
       <c r="D127" t="n">
-        <v>1.65167743120106</v>
+        <v>1.769564367296419</v>
       </c>
       <c r="E127" t="n">
         <v>33</v>
@@ -5213,13 +5213,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.9131007162822624</v>
+        <v>0.6743949274217548</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7385767149187981</v>
+        <v>1.095169439874664</v>
       </c>
       <c r="D128" t="n">
-        <v>1.65167743120106</v>
+        <v>1.769564367296419</v>
       </c>
       <c r="E128" t="n">
         <v>33</v>
@@ -5251,13 +5251,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0.9131007162822624</v>
+        <v>0.6743949274217548</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7385767149187981</v>
+        <v>1.095169439874664</v>
       </c>
       <c r="D129" t="n">
-        <v>1.65167743120106</v>
+        <v>1.769564367296419</v>
       </c>
       <c r="E129" t="n">
         <v>33</v>
@@ -5289,13 +5289,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.9111723099960218</v>
+        <v>0.6734450755684334</v>
       </c>
       <c r="C130" t="n">
-        <v>0.7390973893525952</v>
+        <v>1.097487257930792</v>
       </c>
       <c r="D130" t="n">
-        <v>1.650269699348617</v>
+        <v>1.770932333499226</v>
       </c>
       <c r="E130" t="n">
         <v>43</v>
@@ -5327,13 +5327,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.9048374180359595</v>
+        <v>0.6703200460356393</v>
       </c>
       <c r="C131" t="n">
-        <v>0.7408182206817179</v>
+        <v>1.105170918075648</v>
       </c>
       <c r="D131" t="n">
-        <v>1.645655638717678</v>
+        <v>1.775490964111287</v>
       </c>
       <c r="E131" t="n">
         <v>30</v>
@@ -5365,13 +5365,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0.9048374180359595</v>
+        <v>0.6703200460356393</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7408182206817179</v>
+        <v>1.105170918075648</v>
       </c>
       <c r="D132" t="n">
-        <v>1.645655638717678</v>
+        <v>1.775490964111287</v>
       </c>
       <c r="E132" t="n">
         <v>30</v>
@@ -5403,13 +5403,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.8975305608544599</v>
+        <v>0.6667064696566671</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7428231402192641</v>
+        <v>1.114168189490938</v>
       </c>
       <c r="D133" t="n">
-        <v>1.640353701073724</v>
+        <v>1.780874659147605</v>
       </c>
       <c r="E133" t="n">
         <v>37</v>
@@ -5441,13 +5441,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.8948393168143698</v>
+        <v>0.6653730571622696</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7435670792059064</v>
+        <v>1.117519068741864</v>
       </c>
       <c r="D134" t="n">
-        <v>1.638406396020276</v>
+        <v>1.782892125904133</v>
       </c>
       <c r="E134" t="n">
         <v>27</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.8948393168143698</v>
+        <v>0.6653730571622696</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7435670792059064</v>
+        <v>1.117519068741864</v>
       </c>
       <c r="D135" t="n">
-        <v>1.638406396020276</v>
+        <v>1.782892125904133</v>
       </c>
       <c r="E135" t="n">
         <v>27</v>
@@ -5517,13 +5517,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0.8948393168143698</v>
+        <v>0.6653730571622696</v>
       </c>
       <c r="C136" t="n">
-        <v>0.7435670792059064</v>
+        <v>1.117519068741864</v>
       </c>
       <c r="D136" t="n">
-        <v>1.638406396020276</v>
+        <v>1.782892125904133</v>
       </c>
       <c r="E136" t="n">
         <v>27</v>
@@ -5555,13 +5555,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0.8948393168143698</v>
+        <v>0.6653730571622696</v>
       </c>
       <c r="C137" t="n">
-        <v>0.7435670792059064</v>
+        <v>1.117519068741864</v>
       </c>
       <c r="D137" t="n">
-        <v>1.638406396020276</v>
+        <v>1.782892125904133</v>
       </c>
       <c r="E137" t="n">
         <v>27</v>
@@ -5593,13 +5593,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0.8948393168143698</v>
+        <v>0.6653730571622696</v>
       </c>
       <c r="C138" t="n">
-        <v>0.7435670792059064</v>
+        <v>1.117519068741864</v>
       </c>
       <c r="D138" t="n">
-        <v>1.638406396020276</v>
+        <v>1.782892125904133</v>
       </c>
       <c r="E138" t="n">
         <v>27</v>
@@ -5631,13 +5631,13 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.8948393168143698</v>
+        <v>0.6653730571622696</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7435670792059064</v>
+        <v>1.117519068741864</v>
       </c>
       <c r="D139" t="n">
-        <v>1.638406396020276</v>
+        <v>1.782892125904133</v>
       </c>
       <c r="E139" t="n">
         <v>27</v>
@@ -5669,13 +5669,13 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0.8890097654027757</v>
+        <v>0.6624801353939263</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7451888170134805</v>
+        <v>1.124847036463023</v>
       </c>
       <c r="D140" t="n">
-        <v>1.634198582416256</v>
+        <v>1.78732717185695</v>
       </c>
       <c r="E140" t="n">
         <v>34</v>
@@ -5707,13 +5707,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0.8890097654027757</v>
+        <v>0.6624801353939263</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7451888170134805</v>
+        <v>1.124847036463023</v>
       </c>
       <c r="D141" t="n">
-        <v>1.634198582416256</v>
+        <v>1.78732717185695</v>
       </c>
       <c r="E141" t="n">
         <v>34</v>
@@ -5745,13 +5745,13 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0.8851915475249607</v>
+        <v>0.6605819128108577</v>
       </c>
       <c r="C142" t="n">
-        <v>0.7462587218075877</v>
+        <v>1.129698993168258</v>
       </c>
       <c r="D142" t="n">
-        <v>1.631450269332548</v>
+        <v>1.790280905979115</v>
       </c>
       <c r="E142" t="n">
         <v>41</v>
@@ -5783,13 +5783,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.8789456120040122</v>
+        <v>0.6574708577608569</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7480222311615063</v>
+        <v>1.137726824439093</v>
       </c>
       <c r="D143" t="n">
-        <v>1.626967843165519</v>
+        <v>1.79519768219995</v>
       </c>
       <c r="E143" t="n">
         <v>31</v>
@@ -5821,13 +5821,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0.8751733190429475</v>
+        <v>0.6555883369077856</v>
       </c>
       <c r="C144" t="n">
-        <v>0.7490954336047508</v>
+        <v>1.142630811795723</v>
       </c>
       <c r="D144" t="n">
-        <v>1.624268752647698</v>
+        <v>1.798219148703508</v>
       </c>
       <c r="E144" t="n">
         <v>45</v>
@@ -5859,13 +5859,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.8668778997501816</v>
+        <v>0.6514390575310556</v>
       </c>
       <c r="C145" t="n">
-        <v>0.751477293075286</v>
+        <v>1.153564994895108</v>
       </c>
       <c r="D145" t="n">
-        <v>1.618355192825468</v>
+        <v>1.805004052426163</v>
       </c>
       <c r="E145" t="n">
         <v>35</v>
@@ -5897,13 +5897,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0.8668778997501816</v>
+        <v>0.6514390575310556</v>
       </c>
       <c r="C146" t="n">
-        <v>0.751477293075286</v>
+        <v>1.153564994895108</v>
       </c>
       <c r="D146" t="n">
-        <v>1.618355192825468</v>
+        <v>1.805004052426163</v>
       </c>
       <c r="E146" t="n">
         <v>28</v>
@@ -5935,13 +5935,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0.8668778997501816</v>
+        <v>0.6514390575310556</v>
       </c>
       <c r="C147" t="n">
-        <v>0.751477293075286</v>
+        <v>1.153564994895108</v>
       </c>
       <c r="D147" t="n">
-        <v>1.618355192825468</v>
+        <v>1.805004052426163</v>
       </c>
       <c r="E147" t="n">
         <v>35</v>
@@ -5973,13 +5973,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0.8668778997501816</v>
+        <v>0.6514390575310556</v>
       </c>
       <c r="C148" t="n">
-        <v>0.751477293075286</v>
+        <v>1.153564994895108</v>
       </c>
       <c r="D148" t="n">
-        <v>1.618355192825468</v>
+        <v>1.805004052426163</v>
       </c>
       <c r="E148" t="n">
         <v>28</v>
@@ -6011,13 +6011,13 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.8668778997501816</v>
+        <v>0.6514390575310556</v>
       </c>
       <c r="C149" t="n">
-        <v>0.751477293075286</v>
+        <v>1.153564994895108</v>
       </c>
       <c r="D149" t="n">
-        <v>1.618355192825468</v>
+        <v>1.805004052426163</v>
       </c>
       <c r="E149" t="n">
         <v>42</v>
@@ -6049,13 +6049,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.8668778997501816</v>
+        <v>0.6514390575310556</v>
       </c>
       <c r="C150" t="n">
-        <v>0.751477293075286</v>
+        <v>1.153564994895108</v>
       </c>
       <c r="D150" t="n">
-        <v>1.618355192825468</v>
+        <v>1.805004052426163</v>
       </c>
       <c r="E150" t="n">
         <v>28</v>
@@ -6087,13 +6087,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0.8668778997501816</v>
+        <v>0.6514390575310556</v>
       </c>
       <c r="C151" t="n">
-        <v>0.751477293075286</v>
+        <v>1.153564994895108</v>
       </c>
       <c r="D151" t="n">
-        <v>1.618355192825468</v>
+        <v>1.805004052426163</v>
       </c>
       <c r="E151" t="n">
         <v>42</v>
@@ -6125,13 +6125,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0.8668778997501816</v>
+        <v>0.6514390575310556</v>
       </c>
       <c r="C152" t="n">
-        <v>0.751477293075286</v>
+        <v>1.153564994895108</v>
       </c>
       <c r="D152" t="n">
-        <v>1.618355192825468</v>
+        <v>1.805004052426163</v>
       </c>
       <c r="E152" t="n">
         <v>35</v>
@@ -6163,13 +6163,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0.8668778997501816</v>
+        <v>0.6514390575310556</v>
       </c>
       <c r="C153" t="n">
-        <v>0.751477293075286</v>
+        <v>1.153564994895108</v>
       </c>
       <c r="D153" t="n">
-        <v>1.618355192825468</v>
+        <v>1.805004052426163</v>
       </c>
       <c r="E153" t="n">
         <v>28</v>
@@ -6201,13 +6201,13 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0.8668778997501816</v>
+        <v>0.6514390575310556</v>
       </c>
       <c r="C154" t="n">
-        <v>0.751477293075286</v>
+        <v>1.153564994895108</v>
       </c>
       <c r="D154" t="n">
-        <v>1.618355192825468</v>
+        <v>1.805004052426163</v>
       </c>
       <c r="E154" t="n">
         <v>28</v>
@@ -6239,13 +6239,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.8574039191604412</v>
+        <v>0.6466840491033322</v>
       </c>
       <c r="C155" t="n">
-        <v>0.7542350048231139</v>
+        <v>1.16631144044593</v>
       </c>
       <c r="D155" t="n">
-        <v>1.611638923983555</v>
+        <v>1.812995489549262</v>
       </c>
       <c r="E155" t="n">
         <v>39</v>
@@ -6277,13 +6277,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0.8553453273074225</v>
+        <v>0.6456485264278921</v>
       </c>
       <c r="C156" t="n">
-        <v>0.7548396019890073</v>
+        <v>1.169118446169504</v>
       </c>
       <c r="D156" t="n">
-        <v>1.61018492929643</v>
+        <v>1.814766972597396</v>
       </c>
       <c r="E156" t="n">
         <v>32</v>
@@ -6315,13 +6315,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.8553453273074225</v>
+        <v>0.6456485264278921</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7548396019890073</v>
+        <v>1.169118446169504</v>
       </c>
       <c r="D157" t="n">
-        <v>1.61018492929643</v>
+        <v>1.814766972597396</v>
       </c>
       <c r="E157" t="n">
         <v>32</v>
@@ -6353,13 +6353,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0.8553453273074225</v>
+        <v>0.6456485264278921</v>
       </c>
       <c r="C158" t="n">
-        <v>0.7548396019890073</v>
+        <v>1.169118446169504</v>
       </c>
       <c r="D158" t="n">
-        <v>1.61018492929643</v>
+        <v>1.814766972597396</v>
       </c>
       <c r="E158" t="n">
         <v>32</v>
@@ -6391,13 +6391,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0.8464817248906141</v>
+        <v>0.6411803884299546</v>
       </c>
       <c r="C159" t="n">
-        <v>0.7574651283969664</v>
+        <v>1.181360412865646</v>
       </c>
       <c r="D159" t="n">
-        <v>1.603946853287581</v>
+        <v>1.822540801295601</v>
       </c>
       <c r="E159" t="n">
         <v>36</v>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.8464817248906141</v>
+        <v>0.6411803884299546</v>
       </c>
       <c r="C160" t="n">
-        <v>0.7574651283969664</v>
+        <v>1.181360412865646</v>
       </c>
       <c r="D160" t="n">
-        <v>1.603946853287581</v>
+        <v>1.822540801295601</v>
       </c>
       <c r="E160" t="n">
         <v>36</v>
@@ -6467,13 +6467,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0.8464817248906141</v>
+        <v>0.6411803884299546</v>
       </c>
       <c r="C161" t="n">
-        <v>0.7574651283969664</v>
+        <v>1.181360412865646</v>
       </c>
       <c r="D161" t="n">
-        <v>1.603946853287581</v>
+        <v>1.822540801295601</v>
       </c>
       <c r="E161" t="n">
         <v>36</v>
@@ -6505,13 +6505,13 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0.8416308400672835</v>
+        <v>0.6387284587719574</v>
       </c>
       <c r="C162" t="n">
-        <v>0.7589176018322888</v>
+        <v>1.188169387804344</v>
       </c>
       <c r="D162" t="n">
-        <v>1.600548441899572</v>
+        <v>1.826897846576301</v>
       </c>
       <c r="E162" t="n">
         <v>29</v>
@@ -6543,13 +6543,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.8416308400672835</v>
+        <v>0.6387284587719574</v>
       </c>
       <c r="C163" t="n">
-        <v>0.7589176018322888</v>
+        <v>1.188169387804344</v>
       </c>
       <c r="D163" t="n">
-        <v>1.600548441899572</v>
+        <v>1.826897846576301</v>
       </c>
       <c r="E163" t="n">
         <v>29</v>
@@ -6581,13 +6581,13 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.8416308400672835</v>
+        <v>0.6387284587719574</v>
       </c>
       <c r="C164" t="n">
-        <v>0.7589176018322888</v>
+        <v>1.188169387804344</v>
       </c>
       <c r="D164" t="n">
-        <v>1.600548441899572</v>
+        <v>1.826897846576301</v>
       </c>
       <c r="E164" t="n">
         <v>29</v>
@@ -6619,13 +6619,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.8416308400672835</v>
+        <v>0.6387284587719574</v>
       </c>
       <c r="C165" t="n">
-        <v>0.7589176018322888</v>
+        <v>1.188169387804344</v>
       </c>
       <c r="D165" t="n">
-        <v>1.600548441899572</v>
+        <v>1.826897846576301</v>
       </c>
       <c r="E165" t="n">
         <v>29</v>
@@ -6657,13 +6657,13 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0.8416308400672835</v>
+        <v>0.6387284587719574</v>
       </c>
       <c r="C166" t="n">
-        <v>0.7589176018322888</v>
+        <v>1.188169387804344</v>
       </c>
       <c r="D166" t="n">
-        <v>1.600548441899572</v>
+        <v>1.826897846576301</v>
       </c>
       <c r="E166" t="n">
         <v>29</v>
@@ -6695,13 +6695,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>0.8416308400672835</v>
+        <v>0.6387284587719574</v>
       </c>
       <c r="C167" t="n">
-        <v>0.7589176018322888</v>
+        <v>1.188169387804344</v>
       </c>
       <c r="D167" t="n">
-        <v>1.600548441899572</v>
+        <v>1.826897846576301</v>
       </c>
       <c r="E167" t="n">
         <v>29</v>
@@ -6733,13 +6733,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.8382234324229999</v>
+        <v>0.6370033323169477</v>
       </c>
       <c r="C168" t="n">
-        <v>0.7599445537755991</v>
+        <v>1.192999338027765</v>
       </c>
       <c r="D168" t="n">
-        <v>1.598167986198599</v>
+        <v>1.830002670344713</v>
       </c>
       <c r="E168" t="n">
         <v>51</v>
@@ -6771,13 +6771,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.8337529180751806</v>
+        <v>0.6347364189402819</v>
       </c>
       <c r="C169" t="n">
-        <v>0.7613003866968737</v>
+        <v>1.199396102035386</v>
       </c>
       <c r="D169" t="n">
-        <v>1.595053304772054</v>
+        <v>1.834132520975668</v>
       </c>
       <c r="E169" t="n">
         <v>22</v>
@@ -6809,13 +6809,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.8337529180751806</v>
+        <v>0.6347364189402819</v>
       </c>
       <c r="C170" t="n">
-        <v>0.7613003866968737</v>
+        <v>1.199396102035386</v>
       </c>
       <c r="D170" t="n">
-        <v>1.595053304772054</v>
+        <v>1.834132520975668</v>
       </c>
       <c r="E170" t="n">
         <v>33</v>
@@ -6847,13 +6847,13 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0.8337529180751806</v>
+        <v>0.6347364189402819</v>
       </c>
       <c r="C171" t="n">
-        <v>0.7613003866968737</v>
+        <v>1.199396102035386</v>
       </c>
       <c r="D171" t="n">
-        <v>1.595053304772054</v>
+        <v>1.834132520975668</v>
       </c>
       <c r="E171" t="n">
         <v>33</v>
@@ -6885,13 +6885,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.8337529180751806</v>
+        <v>0.6347364189402819</v>
       </c>
       <c r="C172" t="n">
-        <v>0.7613003866968737</v>
+        <v>1.199396102035386</v>
       </c>
       <c r="D172" t="n">
-        <v>1.595053304772054</v>
+        <v>1.834132520975668</v>
       </c>
       <c r="E172" t="n">
         <v>33</v>
@@ -6923,13 +6923,13 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0.8337529180751806</v>
+        <v>0.6347364189402819</v>
       </c>
       <c r="C173" t="n">
-        <v>0.7613003866968737</v>
+        <v>1.199396102035386</v>
       </c>
       <c r="D173" t="n">
-        <v>1.595053304772054</v>
+        <v>1.834132520975668</v>
       </c>
       <c r="E173" t="n">
         <v>33</v>
@@ -6961,13 +6961,13 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.8337529180751806</v>
+        <v>0.6347364189402819</v>
       </c>
       <c r="C174" t="n">
-        <v>0.7613003866968737</v>
+        <v>1.199396102035386</v>
       </c>
       <c r="D174" t="n">
-        <v>1.595053304772054</v>
+        <v>1.834132520975668</v>
       </c>
       <c r="E174" t="n">
         <v>22</v>
@@ -6999,13 +6999,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.8337529180751806</v>
+        <v>0.6347364189402819</v>
       </c>
       <c r="C175" t="n">
-        <v>0.7613003866968737</v>
+        <v>1.199396102035386</v>
       </c>
       <c r="D175" t="n">
-        <v>1.595053304772054</v>
+        <v>1.834132520975668</v>
       </c>
       <c r="E175" t="n">
         <v>22</v>
@@ -7037,13 +7037,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>0.8187307530779818</v>
+        <v>0.6270890852730561</v>
       </c>
       <c r="C176" t="n">
-        <v>0.7659283383646487</v>
+        <v>1.22140275816017</v>
       </c>
       <c r="D176" t="n">
-        <v>1.584659091442631</v>
+        <v>1.848491843433226</v>
       </c>
       <c r="E176" t="n">
         <v>30</v>
@@ -7075,13 +7075,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.8187307530779818</v>
+        <v>0.6270890852730561</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7659283383646487</v>
+        <v>1.22140275816017</v>
       </c>
       <c r="D177" t="n">
-        <v>1.584659091442631</v>
+        <v>1.848491843433226</v>
       </c>
       <c r="E177" t="n">
         <v>30</v>
@@ -7113,13 +7113,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0.8187307530779818</v>
+        <v>0.6270890852730561</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7659283383646487</v>
+        <v>1.22140275816017</v>
       </c>
       <c r="D178" t="n">
-        <v>1.584659091442631</v>
+        <v>1.848491843433226</v>
       </c>
       <c r="E178" t="n">
         <v>30</v>
@@ -7151,13 +7151,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0.8187307530779818</v>
+        <v>0.6270890852730561</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7659283383646487</v>
+        <v>1.22140275816017</v>
       </c>
       <c r="D179" t="n">
-        <v>1.584659091442631</v>
+        <v>1.848491843433226</v>
       </c>
       <c r="E179" t="n">
         <v>30</v>
@@ -7189,13 +7189,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>0.8046150583253528</v>
+        <v>0.6198604731563713</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7703813975921459</v>
+        <v>1.242830331912135</v>
       </c>
       <c r="D180" t="n">
-        <v>1.574996455917499</v>
+        <v>1.862690805068506</v>
       </c>
       <c r="E180" t="n">
         <v>23</v>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0.8046150583253528</v>
+        <v>0.6198604731563713</v>
       </c>
       <c r="C181" t="n">
-        <v>0.7703813975921459</v>
+        <v>1.242830331912135</v>
       </c>
       <c r="D181" t="n">
-        <v>1.574996455917499</v>
+        <v>1.862690805068506</v>
       </c>
       <c r="E181" t="n">
         <v>23</v>
@@ -7265,13 +7265,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0.8046150583253528</v>
+        <v>0.6198604731563713</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7703813975921459</v>
+        <v>1.242830331912135</v>
       </c>
       <c r="D182" t="n">
-        <v>1.574996455917499</v>
+        <v>1.862690805068506</v>
       </c>
       <c r="E182" t="n">
         <v>23</v>
@@ -7303,13 +7303,13 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.8046150583253528</v>
+        <v>0.6198604731563713</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7703813975921459</v>
+        <v>1.242830331912135</v>
       </c>
       <c r="D183" t="n">
-        <v>1.574996455917499</v>
+        <v>1.862690805068506</v>
       </c>
       <c r="E183" t="n">
         <v>23</v>
@@ -7341,13 +7341,13 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.8046150583253528</v>
+        <v>0.6198604731563713</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7703813975921459</v>
+        <v>1.242830331912135</v>
       </c>
       <c r="D184" t="n">
-        <v>1.574996455917499</v>
+        <v>1.862690805068506</v>
       </c>
       <c r="E184" t="n">
         <v>23</v>
@@ -7379,13 +7379,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>0.8046150583253528</v>
+        <v>0.6198604731563713</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7703813975921459</v>
+        <v>1.242830331912135</v>
       </c>
       <c r="D185" t="n">
-        <v>1.574996455917499</v>
+        <v>1.862690805068506</v>
       </c>
       <c r="E185" t="n">
         <v>23</v>
@@ -7417,13 +7417,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.8046150583253528</v>
+        <v>0.6198604731563713</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7703813975921459</v>
+        <v>1.242830331912135</v>
       </c>
       <c r="D186" t="n">
-        <v>1.574996455917499</v>
+        <v>1.862690805068506</v>
       </c>
       <c r="E186" t="n">
         <v>23</v>
@@ -7455,13 +7455,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.8046150583253528</v>
+        <v>0.6198604731563713</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7703813975921459</v>
+        <v>1.242830331912135</v>
       </c>
       <c r="D187" t="n">
-        <v>1.574996455917499</v>
+        <v>1.862690805068506</v>
       </c>
       <c r="E187" t="n">
         <v>23</v>
@@ -7493,13 +7493,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0.8046150583253528</v>
+        <v>0.6198604731563713</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7703813975921459</v>
+        <v>1.242830331912135</v>
       </c>
       <c r="D188" t="n">
-        <v>1.574996455917499</v>
+        <v>1.862690805068506</v>
       </c>
       <c r="E188" t="n">
         <v>23</v>
@@ -7531,13 +7531,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.8046150583253528</v>
+        <v>0.6198604731563713</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7703813975921459</v>
+        <v>1.242830331912135</v>
       </c>
       <c r="D189" t="n">
-        <v>1.574996455917499</v>
+        <v>1.862690805068506</v>
       </c>
       <c r="E189" t="n">
         <v>23</v>
@@ -7569,13 +7569,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.8007374029168081</v>
+        <v>0.6178673543839127</v>
       </c>
       <c r="C190" t="n">
-        <v>0.771622946715411</v>
+        <v>1.248848869001682</v>
       </c>
       <c r="D190" t="n">
-        <v>1.572360349632219</v>
+        <v>1.866716223385595</v>
       </c>
       <c r="E190" t="n">
         <v>27</v>
@@ -7607,13 +7607,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>0.8007374029168081</v>
+        <v>0.6178673543839127</v>
       </c>
       <c r="C191" t="n">
-        <v>0.771622946715411</v>
+        <v>1.248848869001682</v>
       </c>
       <c r="D191" t="n">
-        <v>1.572360349632219</v>
+        <v>1.866716223385595</v>
       </c>
       <c r="E191" t="n">
         <v>27</v>
@@ -7645,13 +7645,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.8007374029168081</v>
+        <v>0.6178673543839127</v>
       </c>
       <c r="C192" t="n">
-        <v>0.771622946715411</v>
+        <v>1.248848869001682</v>
       </c>
       <c r="D192" t="n">
-        <v>1.572360349632219</v>
+        <v>1.866716223385595</v>
       </c>
       <c r="E192" t="n">
         <v>27</v>
@@ -7683,13 +7683,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.7978725136602237</v>
+        <v>0.6163927313272271</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7725453888611077</v>
+        <v>1.253333061208639</v>
       </c>
       <c r="D193" t="n">
-        <v>1.570417902521331</v>
+        <v>1.869725792535866</v>
       </c>
       <c r="E193" t="n">
         <v>31</v>
@@ -7721,13 +7721,13 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.7978725136602237</v>
+        <v>0.6163927313272271</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7725453888611077</v>
+        <v>1.253333061208639</v>
       </c>
       <c r="D194" t="n">
-        <v>1.570417902521331</v>
+        <v>1.869725792535866</v>
       </c>
       <c r="E194" t="n">
         <v>31</v>
@@ -7759,13 +7759,13 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0.7978725136602237</v>
+        <v>0.6163927313272271</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7725453888611077</v>
+        <v>1.253333061208639</v>
       </c>
       <c r="D195" t="n">
-        <v>1.570417902521331</v>
+        <v>1.869725792535866</v>
       </c>
       <c r="E195" t="n">
         <v>31</v>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0.7978725136602237</v>
+        <v>0.6163927313272271</v>
       </c>
       <c r="C196" t="n">
-        <v>0.7725453888611077</v>
+        <v>1.253333061208639</v>
       </c>
       <c r="D196" t="n">
-        <v>1.570417902521331</v>
+        <v>1.869725792535866</v>
       </c>
       <c r="E196" t="n">
         <v>31</v>
@@ -7835,13 +7835,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.7978725136602237</v>
+        <v>0.6163927313272271</v>
       </c>
       <c r="C197" t="n">
-        <v>0.7725453888611077</v>
+        <v>1.253333061208639</v>
       </c>
       <c r="D197" t="n">
-        <v>1.570417902521331</v>
+        <v>1.869725792535866</v>
       </c>
       <c r="E197" t="n">
         <v>31</v>
@@ -7873,13 +7873,13 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C198" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D198" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E198" t="n">
         <v>24</v>
@@ -7911,13 +7911,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D199" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E199" t="n">
         <v>24</v>
@@ -7949,13 +7949,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C200" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D200" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E200" t="n">
         <v>24</v>
@@ -7987,13 +7987,13 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C201" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D201" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E201" t="n">
         <v>24</v>
@@ -8025,13 +8025,13 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C202" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D202" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E202" t="n">
         <v>24</v>
@@ -8063,13 +8063,13 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C203" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D203" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E203" t="n">
         <v>24</v>
@@ -8101,13 +8101,13 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C204" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D204" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E204" t="n">
         <v>24</v>
@@ -8139,13 +8139,13 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C205" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D205" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E205" t="n">
         <v>24</v>
@@ -8177,13 +8177,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C206" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D206" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E206" t="n">
         <v>24</v>
@@ -8215,13 +8215,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C207" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D207" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E207" t="n">
         <v>24</v>
@@ -8253,13 +8253,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C208" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D208" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E208" t="n">
         <v>24</v>
@@ -8291,13 +8291,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C209" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D209" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E209" t="n">
         <v>24</v>
@@ -8329,13 +8329,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C210" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D210" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E210" t="n">
         <v>32</v>
@@ -8367,13 +8367,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C211" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D211" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E211" t="n">
         <v>24</v>
@@ -8405,13 +8405,13 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C212" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D212" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E212" t="n">
         <v>24</v>
@@ -8443,13 +8443,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C213" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D213" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E213" t="n">
         <v>24</v>
@@ -8481,13 +8481,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C214" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D214" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E214" t="n">
         <v>24</v>
@@ -8519,13 +8519,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C215" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D215" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E215" t="n">
         <v>24</v>
@@ -8557,13 +8557,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0.7788007830714049</v>
+        <v>0.6065306597126334</v>
       </c>
       <c r="C216" t="n">
-        <v>0.7788007830714049</v>
+        <v>1.284025416687741</v>
       </c>
       <c r="D216" t="n">
-        <v>1.55760156614281</v>
+        <v>1.890556076400375</v>
       </c>
       <c r="E216" t="n">
         <v>24</v>
@@ -8595,13 +8595,13 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0.764683938413801</v>
+        <v>0.5991788634896815</v>
       </c>
       <c r="C217" t="n">
-        <v>0.7835640758096347</v>
+        <v>1.307729834203553</v>
       </c>
       <c r="D217" t="n">
-        <v>1.548248014223436</v>
+        <v>1.906908697693235</v>
       </c>
       <c r="E217" t="n">
         <v>41</v>
@@ -8633,13 +8633,13 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.7613003866968737</v>
+        <v>0.5974100710831303</v>
       </c>
       <c r="C218" t="n">
-        <v>0.7847231940537559</v>
+        <v>1.313541957253949</v>
       </c>
       <c r="D218" t="n">
-        <v>1.54602358075063</v>
+        <v>1.91095202833708</v>
       </c>
       <c r="E218" t="n">
         <v>33</v>
@@ -8671,13 +8671,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>0.7613003866968737</v>
+        <v>0.5974100710831303</v>
       </c>
       <c r="C219" t="n">
-        <v>0.7847231940537559</v>
+        <v>1.313541957253949</v>
       </c>
       <c r="D219" t="n">
-        <v>1.54602358075063</v>
+        <v>1.91095202833708</v>
       </c>
       <c r="E219" t="n">
         <v>33</v>
@@ -8709,13 +8709,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C220" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D220" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E220" t="n">
         <v>25</v>
@@ -8747,13 +8747,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C221" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D221" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E221" t="n">
         <v>25</v>
@@ -8785,13 +8785,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C222" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D222" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E222" t="n">
         <v>25</v>
@@ -8823,13 +8823,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C223" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D223" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E223" t="n">
         <v>25</v>
@@ -8861,13 +8861,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C224" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D224" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E224" t="n">
         <v>25</v>
@@ -8899,13 +8899,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C225" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D225" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E225" t="n">
         <v>25</v>
@@ -8937,13 +8937,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C226" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D226" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E226" t="n">
         <v>25</v>
@@ -8975,13 +8975,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C227" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D227" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E227" t="n">
         <v>25</v>
@@ -9013,13 +9013,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C228" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D228" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E228" t="n">
         <v>25</v>
@@ -9051,13 +9051,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C229" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D229" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E229" t="n">
         <v>25</v>
@@ -9089,13 +9089,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C230" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D230" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E230" t="n">
         <v>25</v>
@@ -9127,13 +9127,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C231" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D231" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E231" t="n">
         <v>25</v>
@@ -9165,13 +9165,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C232" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D232" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E232" t="n">
         <v>25</v>
@@ -9203,13 +9203,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.7557837414557255</v>
+        <v>0.5945205479701944</v>
       </c>
       <c r="C233" t="n">
-        <v>0.7866278610665535</v>
+        <v>1.323129812337437</v>
       </c>
       <c r="D233" t="n">
-        <v>1.542411602522279</v>
+        <v>1.917650360307631</v>
       </c>
       <c r="E233" t="n">
         <v>25</v>
@@ -9241,13 +9241,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0.7514772930752859</v>
+        <v>0.592260016295893</v>
       </c>
       <c r="C234" t="n">
-        <v>0.788127627745311</v>
+        <v>1.33071219744735</v>
       </c>
       <c r="D234" t="n">
-        <v>1.539604920820597</v>
+        <v>1.922972213743243</v>
       </c>
       <c r="E234" t="n">
         <v>21</v>
@@ -9279,13 +9279,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0.7514772930752859</v>
+        <v>0.592260016295893</v>
       </c>
       <c r="C235" t="n">
-        <v>0.788127627745311</v>
+        <v>1.33071219744735</v>
       </c>
       <c r="D235" t="n">
-        <v>1.539604920820597</v>
+        <v>1.922972213743243</v>
       </c>
       <c r="E235" t="n">
         <v>21</v>
@@ -9317,13 +9317,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>0.7514772930752859</v>
+        <v>0.592260016295893</v>
       </c>
       <c r="C236" t="n">
-        <v>0.788127627745311</v>
+        <v>1.33071219744735</v>
       </c>
       <c r="D236" t="n">
-        <v>1.539604920820597</v>
+        <v>1.922972213743243</v>
       </c>
       <c r="E236" t="n">
         <v>21</v>
@@ -9355,13 +9355,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0.7451888170134805</v>
+        <v>0.5889513097505534</v>
       </c>
       <c r="C237" t="n">
-        <v>0.7903383629814982</v>
+        <v>1.34194176988288</v>
       </c>
       <c r="D237" t="n">
-        <v>1.535527179994979</v>
+        <v>1.930893079633434</v>
       </c>
       <c r="E237" t="n">
         <v>34</v>
@@ -9393,13 +9393,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.7408182206817179</v>
+        <v>0.5866462195100318</v>
       </c>
       <c r="C238" t="n">
-        <v>0.7918895663367816</v>
+        <v>1.349858807576003</v>
       </c>
       <c r="D238" t="n">
-        <v>1.5327077870185</v>
+        <v>1.936505027086035</v>
       </c>
       <c r="E238" t="n">
         <v>30</v>
@@ -9431,13 +9431,13 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>0.7351414805916846</v>
+        <v>0.583645478143574</v>
       </c>
       <c r="C239" t="n">
-        <v>0.7939226578179512</v>
+        <v>1.36028237611506</v>
       </c>
       <c r="D239" t="n">
-        <v>1.529064138409636</v>
+        <v>1.943927854258634</v>
       </c>
       <c r="E239" t="n">
         <v>26</v>
@@ -9469,13 +9469,13 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>0.7351414805916846</v>
+        <v>0.583645478143574</v>
       </c>
       <c r="C240" t="n">
-        <v>0.7939226578179512</v>
+        <v>1.36028237611506</v>
       </c>
       <c r="D240" t="n">
-        <v>1.529064138409636</v>
+        <v>1.943927854258634</v>
       </c>
       <c r="E240" t="n">
         <v>26</v>
@@ -9507,13 +9507,13 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0.7351414805916846</v>
+        <v>0.583645478143574</v>
       </c>
       <c r="C241" t="n">
-        <v>0.7939226578179512</v>
+        <v>1.36028237611506</v>
       </c>
       <c r="D241" t="n">
-        <v>1.529064138409636</v>
+        <v>1.943927854258634</v>
       </c>
       <c r="E241" t="n">
         <v>26</v>
@@ -9545,13 +9545,13 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0.7351414805916846</v>
+        <v>0.583645478143574</v>
       </c>
       <c r="C242" t="n">
-        <v>0.7939226578179512</v>
+        <v>1.36028237611506</v>
       </c>
       <c r="D242" t="n">
-        <v>1.529064138409636</v>
+        <v>1.943927854258634</v>
       </c>
       <c r="E242" t="n">
         <v>26</v>
@@ -9583,13 +9583,13 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0.7351414805916846</v>
+        <v>0.583645478143574</v>
       </c>
       <c r="C243" t="n">
-        <v>0.7939226578179512</v>
+        <v>1.36028237611506</v>
       </c>
       <c r="D243" t="n">
-        <v>1.529064138409636</v>
+        <v>1.943927854258634</v>
       </c>
       <c r="E243" t="n">
         <v>26</v>
@@ -9621,13 +9621,13 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0.7351414805916846</v>
+        <v>0.583645478143574</v>
       </c>
       <c r="C244" t="n">
-        <v>0.7939226578179512</v>
+        <v>1.36028237611506</v>
       </c>
       <c r="D244" t="n">
-        <v>1.529064138409636</v>
+        <v>1.943927854258634</v>
       </c>
       <c r="E244" t="n">
         <v>26</v>
@@ -9659,13 +9659,13 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0.7351414805916846</v>
+        <v>0.583645478143574</v>
       </c>
       <c r="C245" t="n">
-        <v>0.7939226578179512</v>
+        <v>1.36028237611506</v>
       </c>
       <c r="D245" t="n">
-        <v>1.529064138409636</v>
+        <v>1.943927854258634</v>
       </c>
       <c r="E245" t="n">
         <v>26</v>
@@ -9697,13 +9697,13 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0.7351414805916846</v>
+        <v>0.583645478143574</v>
       </c>
       <c r="C246" t="n">
-        <v>0.7939226578179512</v>
+        <v>1.36028237611506</v>
       </c>
       <c r="D246" t="n">
-        <v>1.529064138409636</v>
+        <v>1.943927854258634</v>
       </c>
       <c r="E246" t="n">
         <v>26</v>
@@ -9735,13 +9735,13 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0.7303103382513573</v>
+        <v>0.5810856336678201</v>
       </c>
       <c r="C247" t="n">
-        <v>0.7956694616416928</v>
+        <v>1.369280903779047</v>
       </c>
       <c r="D247" t="n">
-        <v>1.52597979989305</v>
+        <v>1.950366537446867</v>
       </c>
       <c r="E247" t="n">
         <v>35</v>
@@ -9773,13 +9773,13 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0.7274705090242837</v>
+        <v>0.5795782787848095</v>
       </c>
       <c r="C248" t="n">
-        <v>0.7967034698934616</v>
+        <v>1.374626170538851</v>
       </c>
       <c r="D248" t="n">
-        <v>1.524173978917745</v>
+        <v>1.954204449323661</v>
       </c>
       <c r="E248" t="n">
         <v>22</v>
@@ -9811,13 +9811,13 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0.7274705090242837</v>
+        <v>0.5795782787848095</v>
       </c>
       <c r="C249" t="n">
-        <v>0.7967034698934616</v>
+        <v>1.374626170538851</v>
       </c>
       <c r="D249" t="n">
-        <v>1.524173978917745</v>
+        <v>1.954204449323661</v>
       </c>
       <c r="E249" t="n">
         <v>22</v>
@@ -9849,13 +9849,13 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>0.7274705090242837</v>
+        <v>0.5795782787848095</v>
       </c>
       <c r="C250" t="n">
-        <v>0.7967034698934616</v>
+        <v>1.374626170538851</v>
       </c>
       <c r="D250" t="n">
-        <v>1.524173978917745</v>
+        <v>1.954204449323661</v>
       </c>
       <c r="E250" t="n">
         <v>22</v>
@@ -9887,13 +9887,13 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0.7242775199742143</v>
+        <v>0.5778811254494193</v>
       </c>
       <c r="C251" t="n">
-        <v>0.7978725136602238</v>
+        <v>1.380686232033823</v>
       </c>
       <c r="D251" t="n">
-        <v>1.522150033634438</v>
+        <v>1.958567357483243</v>
       </c>
       <c r="E251" t="n">
         <v>31</v>
@@ -9925,13 +9925,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.7165313105737893</v>
+        <v>0.5737534207374327</v>
       </c>
       <c r="C252" t="n">
-        <v>0.8007374029168081</v>
+        <v>1.39561242508609</v>
       </c>
       <c r="D252" t="n">
-        <v>1.517268713490597</v>
+        <v>1.969365845823522</v>
       </c>
       <c r="E252" t="n">
         <v>27</v>
@@ -9963,13 +9963,13 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>0.7165313105737893</v>
+        <v>0.5737534207374327</v>
       </c>
       <c r="C253" t="n">
-        <v>0.8007374029168081</v>
+        <v>1.39561242508609</v>
       </c>
       <c r="D253" t="n">
-        <v>1.517268713490597</v>
+        <v>1.969365845823522</v>
       </c>
       <c r="E253" t="n">
         <v>27</v>
@@ -10001,13 +10001,13 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.7165313105737893</v>
+        <v>0.5737534207374327</v>
       </c>
       <c r="C254" t="n">
-        <v>0.8007374029168081</v>
+        <v>1.39561242508609</v>
       </c>
       <c r="D254" t="n">
-        <v>1.517268713490597</v>
+        <v>1.969365845823522</v>
       </c>
       <c r="E254" t="n">
         <v>27</v>
@@ -10039,13 +10039,13 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0.7165313105737893</v>
+        <v>0.5737534207374327</v>
       </c>
       <c r="C255" t="n">
-        <v>0.8007374029168081</v>
+        <v>1.39561242508609</v>
       </c>
       <c r="D255" t="n">
-        <v>1.517268713490597</v>
+        <v>1.969365845823522</v>
       </c>
       <c r="E255" t="n">
         <v>27</v>
@@ -10077,13 +10077,13 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0.7165313105737893</v>
+        <v>0.5737534207374327</v>
       </c>
       <c r="C256" t="n">
-        <v>0.8007374029168081</v>
+        <v>1.39561242508609</v>
       </c>
       <c r="D256" t="n">
-        <v>1.517268713490597</v>
+        <v>1.969365845823522</v>
       </c>
       <c r="E256" t="n">
         <v>27</v>
@@ -10115,13 +10115,13 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.7165313105737893</v>
+        <v>0.5737534207374327</v>
       </c>
       <c r="C257" t="n">
-        <v>0.8007374029168081</v>
+        <v>1.39561242508609</v>
       </c>
       <c r="D257" t="n">
-        <v>1.517268713490597</v>
+        <v>1.969365845823522</v>
       </c>
       <c r="E257" t="n">
         <v>27</v>
@@ -10153,13 +10153,13 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0.7165313105737893</v>
+        <v>0.5737534207374327</v>
       </c>
       <c r="C258" t="n">
-        <v>0.8007374029168081</v>
+        <v>1.39561242508609</v>
       </c>
       <c r="D258" t="n">
-        <v>1.517268713490597</v>
+        <v>1.969365845823522</v>
       </c>
       <c r="E258" t="n">
         <v>27</v>
@@ -10191,13 +10191,13 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0.7165313105737893</v>
+        <v>0.5737534207374327</v>
       </c>
       <c r="C259" t="n">
-        <v>0.8007374029168081</v>
+        <v>1.39561242508609</v>
       </c>
       <c r="D259" t="n">
-        <v>1.517268713490597</v>
+        <v>1.969365845823522</v>
       </c>
       <c r="E259" t="n">
         <v>27</v>
@@ -10229,13 +10229,13 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0.7165313105737893</v>
+        <v>0.5737534207374327</v>
       </c>
       <c r="C260" t="n">
-        <v>0.8007374029168081</v>
+        <v>1.39561242508609</v>
       </c>
       <c r="D260" t="n">
-        <v>1.517268713490597</v>
+        <v>1.969365845823522</v>
       </c>
       <c r="E260" t="n">
         <v>27</v>
@@ -10267,13 +10267,13 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.7062216866978064</v>
+        <v>0.5682366036329846</v>
       </c>
       <c r="C261" t="n">
-        <v>0.8046150583253528</v>
+        <v>1.415985969895459</v>
       </c>
       <c r="D261" t="n">
-        <v>1.510836745023159</v>
+        <v>1.984222573528443</v>
       </c>
       <c r="E261" t="n">
         <v>23</v>
@@ -10305,13 +10305,13 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0.7062216866978064</v>
+        <v>0.5682366036329846</v>
       </c>
       <c r="C262" t="n">
-        <v>0.8046150583253528</v>
+        <v>1.415985969895459</v>
       </c>
       <c r="D262" t="n">
-        <v>1.510836745023159</v>
+        <v>1.984222573528443</v>
       </c>
       <c r="E262" t="n">
         <v>23</v>
@@ -10343,13 +10343,13 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0.6996725373751304</v>
+        <v>0.5647181220077593</v>
       </c>
       <c r="C263" t="n">
-        <v>0.8071177470053893</v>
+        <v>1.429240032417978</v>
       </c>
       <c r="D263" t="n">
-        <v>1.50679028438052</v>
+        <v>1.993958154425737</v>
       </c>
       <c r="E263" t="n">
         <v>28</v>
@@ -10381,13 +10381,13 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>0.6996725373751304</v>
+        <v>0.5647181220077593</v>
       </c>
       <c r="C264" t="n">
-        <v>0.8071177470053893</v>
+        <v>1.429240032417978</v>
       </c>
       <c r="D264" t="n">
-        <v>1.50679028438052</v>
+        <v>1.993958154425737</v>
       </c>
       <c r="E264" t="n">
         <v>28</v>
@@ -10419,13 +10419,13 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.6996725373751304</v>
+        <v>0.5647181220077593</v>
       </c>
       <c r="C265" t="n">
-        <v>0.8071177470053893</v>
+        <v>1.429240032417978</v>
       </c>
       <c r="D265" t="n">
-        <v>1.50679028438052</v>
+        <v>1.993958154425737</v>
       </c>
       <c r="E265" t="n">
         <v>28</v>
@@ -10457,13 +10457,13 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0.6996725373751304</v>
+        <v>0.5647181220077593</v>
       </c>
       <c r="C266" t="n">
-        <v>0.8071177470053893</v>
+        <v>1.429240032417978</v>
       </c>
       <c r="D266" t="n">
-        <v>1.50679028438052</v>
+        <v>1.993958154425737</v>
       </c>
       <c r="E266" t="n">
         <v>28</v>
@@ -10495,13 +10495,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0.6996725373751304</v>
+        <v>0.5647181220077593</v>
       </c>
       <c r="C267" t="n">
-        <v>0.8071177470053893</v>
+        <v>1.429240032417978</v>
       </c>
       <c r="D267" t="n">
-        <v>1.50679028438052</v>
+        <v>1.993958154425737</v>
       </c>
       <c r="E267" t="n">
         <v>28</v>
@@ -10533,13 +10533,13 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.6996725373751304</v>
+        <v>0.5647181220077593</v>
       </c>
       <c r="C268" t="n">
-        <v>0.8071177470053893</v>
+        <v>1.429240032417978</v>
       </c>
       <c r="D268" t="n">
-        <v>1.50679028438052</v>
+        <v>1.993958154425737</v>
       </c>
       <c r="E268" t="n">
         <v>28</v>
@@ -10571,13 +10571,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.6918258252705171</v>
+        <v>0.560488043568919</v>
       </c>
       <c r="C269" t="n">
-        <v>0.8101577349324267</v>
+        <v>1.445450521609223</v>
       </c>
       <c r="D269" t="n">
-        <v>1.501983560202944</v>
+        <v>2.005938565178142</v>
       </c>
       <c r="E269" t="n">
         <v>19</v>
@@ -10609,13 +10609,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0.6918258252705171</v>
+        <v>0.560488043568919</v>
       </c>
       <c r="C270" t="n">
-        <v>0.8101577349324267</v>
+        <v>1.445450521609223</v>
       </c>
       <c r="D270" t="n">
-        <v>1.501983560202944</v>
+        <v>2.005938565178142</v>
       </c>
       <c r="E270" t="n">
         <v>19</v>
@@ -10647,13 +10647,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>0.6918258252705171</v>
+        <v>0.560488043568919</v>
       </c>
       <c r="C271" t="n">
-        <v>0.8101577349324267</v>
+        <v>1.445450521609223</v>
       </c>
       <c r="D271" t="n">
-        <v>1.501983560202944</v>
+        <v>2.005938565178142</v>
       </c>
       <c r="E271" t="n">
         <v>19</v>
@@ -10685,13 +10685,13 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.6918258252705171</v>
+        <v>0.560488043568919</v>
       </c>
       <c r="C272" t="n">
-        <v>0.8101577349324267</v>
+        <v>1.445450521609223</v>
       </c>
       <c r="D272" t="n">
-        <v>1.501983560202944</v>
+        <v>2.005938565178142</v>
       </c>
       <c r="E272" t="n">
         <v>19</v>
@@ -10723,13 +10723,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>0.6918258252705171</v>
+        <v>0.560488043568919</v>
       </c>
       <c r="C273" t="n">
-        <v>0.8101577349324267</v>
+        <v>1.445450521609223</v>
       </c>
       <c r="D273" t="n">
-        <v>1.501983560202944</v>
+        <v>2.005938565178142</v>
       </c>
       <c r="E273" t="n">
         <v>19</v>
@@ -10761,13 +10761,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0.6918258252705171</v>
+        <v>0.560488043568919</v>
       </c>
       <c r="C274" t="n">
-        <v>0.8101577349324267</v>
+        <v>1.445450521609223</v>
       </c>
       <c r="D274" t="n">
-        <v>1.501983560202944</v>
+        <v>2.005938565178142</v>
       </c>
       <c r="E274" t="n">
         <v>19</v>
@@ -10799,13 +10799,13 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0.6918258252705171</v>
+        <v>0.560488043568919</v>
       </c>
       <c r="C275" t="n">
-        <v>0.8101577349324267</v>
+        <v>1.445450521609223</v>
       </c>
       <c r="D275" t="n">
-        <v>1.501983560202944</v>
+        <v>2.005938565178142</v>
       </c>
       <c r="E275" t="n">
         <v>19</v>
@@ -10837,13 +10837,13 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.6918258252705171</v>
+        <v>0.560488043568919</v>
       </c>
       <c r="C276" t="n">
-        <v>0.8101577349324267</v>
+        <v>1.445450521609223</v>
       </c>
       <c r="D276" t="n">
-        <v>1.501983560202944</v>
+        <v>2.005938565178142</v>
       </c>
       <c r="E276" t="n">
         <v>19</v>
@@ -10875,13 +10875,13 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0.6918258252705171</v>
+        <v>0.560488043568919</v>
       </c>
       <c r="C277" t="n">
-        <v>0.8101577349324267</v>
+        <v>1.445450521609223</v>
       </c>
       <c r="D277" t="n">
-        <v>1.501983560202944</v>
+        <v>2.005938565178142</v>
       </c>
       <c r="E277" t="n">
         <v>19</v>
@@ -10913,13 +10913,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0.6918258252705171</v>
+        <v>0.560488043568919</v>
       </c>
       <c r="C278" t="n">
-        <v>0.8101577349324267</v>
+        <v>1.445450521609223</v>
       </c>
       <c r="D278" t="n">
-        <v>1.501983560202944</v>
+        <v>2.005938565178142</v>
       </c>
       <c r="E278" t="n">
         <v>19</v>
@@ -10951,13 +10951,13 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0.6872892787909722</v>
+        <v>0.5580351457700471</v>
       </c>
       <c r="C279" t="n">
-        <v>0.8119363461506349</v>
+        <v>1.454991414618201</v>
       </c>
       <c r="D279" t="n">
-        <v>1.499225624941607</v>
+        <v>2.013026560388248</v>
       </c>
       <c r="E279" t="n">
         <v>24</v>
@@ -10989,13 +10989,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0.6843332004383634</v>
+        <v>0.5564338982454284</v>
       </c>
       <c r="C280" t="n">
-        <v>0.8131037598190377</v>
+        <v>1.461276464972662</v>
       </c>
       <c r="D280" t="n">
-        <v>1.497436960257401</v>
+        <v>2.01771036321809</v>
       </c>
       <c r="E280" t="n">
         <v>29</v>
@@ -11027,13 +11027,13 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0.6843332004383634</v>
+        <v>0.5564338982454284</v>
       </c>
       <c r="C281" t="n">
-        <v>0.8131037598190377</v>
+        <v>1.461276464972662</v>
       </c>
       <c r="D281" t="n">
-        <v>1.497436960257401</v>
+        <v>2.01771036321809</v>
       </c>
       <c r="E281" t="n">
         <v>29</v>
@@ -11065,13 +11065,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C282" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D282" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E282" t="n">
         <v>20</v>
@@ -11103,13 +11103,13 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C283" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D283" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E283" t="n">
         <v>20</v>
@@ -11141,13 +11141,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C284" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D284" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E284" t="n">
         <v>20</v>
@@ -11179,13 +11179,13 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C285" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D285" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E285" t="n">
         <v>20</v>
@@ -11217,13 +11217,13 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C286" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D286" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E286" t="n">
         <v>20</v>
@@ -11255,13 +11255,13 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C287" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D287" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E287" t="n">
         <v>20</v>
@@ -11293,13 +11293,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C288" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D288" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E288" t="n">
         <v>20</v>
@@ -11331,13 +11331,13 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C289" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D289" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E289" t="n">
         <v>25</v>
@@ -11369,13 +11369,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C290" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D290" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E290" t="n">
         <v>20</v>
@@ -11407,13 +11407,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C291" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D291" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E291" t="n">
         <v>20</v>
@@ -11445,13 +11445,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C292" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D292" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E292" t="n">
         <v>20</v>
@@ -11483,13 +11483,13 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C293" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D293" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E293" t="n">
         <v>20</v>
@@ -11521,13 +11521,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>0.6703200460356393</v>
+        <v>0.5488116360940265</v>
       </c>
       <c r="C294" t="n">
-        <v>0.8187307530779818</v>
+        <v>1.49182469764127</v>
       </c>
       <c r="D294" t="n">
-        <v>1.489050799113621</v>
+        <v>2.040636333735297</v>
       </c>
       <c r="E294" t="n">
         <v>20</v>
@@ -11559,13 +11559,13 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0.6550282443857736</v>
+        <v>0.5404329964865341</v>
       </c>
       <c r="C295" t="n">
-        <v>0.825052966980536</v>
+        <v>1.526651726198021</v>
       </c>
       <c r="D295" t="n">
-        <v>1.48008121136631</v>
+        <v>2.067084722684555</v>
       </c>
       <c r="E295" t="n">
         <v>26</v>
@@ -11597,13 +11597,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>0.6550282443857736</v>
+        <v>0.5404329964865341</v>
       </c>
       <c r="C296" t="n">
-        <v>0.825052966980536</v>
+        <v>1.526651726198021</v>
       </c>
       <c r="D296" t="n">
-        <v>1.48008121136631</v>
+        <v>2.067084722684555</v>
       </c>
       <c r="E296" t="n">
         <v>26</v>
@@ -11635,13 +11635,13 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C297" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D297" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E297" t="n">
         <v>21</v>
@@ -11673,13 +11673,13 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C298" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D298" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E298" t="n">
         <v>21</v>
@@ -11711,13 +11711,13 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C299" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D299" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E299" t="n">
         <v>21</v>
@@ -11749,13 +11749,13 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C300" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D300" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E300" t="n">
         <v>21</v>
@@ -11787,13 +11787,13 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C301" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D301" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E301" t="n">
         <v>21</v>
@@ -11825,13 +11825,13 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C302" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D302" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E302" t="n">
         <v>21</v>
@@ -11863,13 +11863,13 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C303" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D303" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E303" t="n">
         <v>21</v>
@@ -11901,13 +11901,13 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C304" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D304" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E304" t="n">
         <v>21</v>
@@ -11939,13 +11939,13 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C305" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D305" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E305" t="n">
         <v>21</v>
@@ -11977,13 +11977,13 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C306" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D306" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E306" t="n">
         <v>21</v>
@@ -12015,13 +12015,13 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C307" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D307" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E307" t="n">
         <v>21</v>
@@ -12053,13 +12053,13 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C308" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D308" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E308" t="n">
         <v>21</v>
@@ -12091,13 +12091,13 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C309" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D309" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E309" t="n">
         <v>21</v>
@@ -12129,13 +12129,13 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C310" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D310" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E310" t="n">
         <v>21</v>
@@ -12167,13 +12167,13 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C311" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D311" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E311" t="n">
         <v>21</v>
@@ -12205,13 +12205,13 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C312" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D312" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E312" t="n">
         <v>21</v>
@@ -12243,13 +12243,13 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0.6514390575310556</v>
+        <v>0.5384570096736782</v>
       </c>
       <c r="C313" t="n">
-        <v>0.8265654376242381</v>
+        <v>1.53506300925521</v>
       </c>
       <c r="D313" t="n">
-        <v>1.478004495155294</v>
+        <v>2.073520018928888</v>
       </c>
       <c r="E313" t="n">
         <v>21</v>
@@ -12281,13 +12281,13 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C314" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D314" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E314" t="n">
         <v>22</v>
@@ -12319,13 +12319,13 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C315" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D315" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E315" t="n">
         <v>22</v>
@@ -12357,13 +12357,13 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C316" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D316" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E316" t="n">
         <v>22</v>
@@ -12395,13 +12395,13 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C317" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D317" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E317" t="n">
         <v>22</v>
@@ -12433,13 +12433,13 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C318" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D318" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E318" t="n">
         <v>22</v>
@@ -12471,13 +12471,13 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C319" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D319" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E319" t="n">
         <v>22</v>
@@ -12509,13 +12509,13 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C320" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D320" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E320" t="n">
         <v>22</v>
@@ -12547,13 +12547,13 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C321" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D321" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E321" t="n">
         <v>22</v>
@@ -12585,13 +12585,13 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C322" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D322" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E322" t="n">
         <v>22</v>
@@ -12623,13 +12623,13 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C323" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D323" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E323" t="n">
         <v>22</v>
@@ -12661,13 +12661,13 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C324" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D324" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E324" t="n">
         <v>22</v>
@@ -12699,13 +12699,13 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C325" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D325" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E325" t="n">
         <v>22</v>
@@ -12737,13 +12737,13 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C326" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D326" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E326" t="n">
         <v>22</v>
@@ -12775,13 +12775,13 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C327" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D327" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E327" t="n">
         <v>22</v>
@@ -12813,13 +12813,13 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C328" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D328" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E328" t="n">
         <v>22</v>
@@ -12851,13 +12851,13 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C329" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D329" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E329" t="n">
         <v>22</v>
@@ -12889,13 +12889,13 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C330" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D330" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E330" t="n">
         <v>22</v>
@@ -12927,13 +12927,13 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C331" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D331" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E331" t="n">
         <v>22</v>
@@ -12965,13 +12965,13 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0.6347364189402819</v>
+        <v>0.5292133415000503</v>
       </c>
       <c r="C332" t="n">
-        <v>0.8337529180751806</v>
+        <v>1.575457103390318</v>
       </c>
       <c r="D332" t="n">
-        <v>1.468489337015463</v>
+        <v>2.104670444890369</v>
       </c>
       <c r="E332" t="n">
         <v>22</v>
@@ -13003,13 +13003,13 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>0.6246347280002744</v>
+        <v>0.5235834657149969</v>
       </c>
       <c r="C333" t="n">
-        <v>0.8382234324229999</v>
+        <v>1.600935643142084</v>
       </c>
       <c r="D333" t="n">
-        <v>1.462858160423274</v>
+        <v>2.124519108857081</v>
       </c>
       <c r="E333" t="n">
         <v>34</v>
@@ -13041,13 +13041,13 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0.6198604731563713</v>
+        <v>0.5209121273117441</v>
       </c>
       <c r="C334" t="n">
-        <v>0.840369970130898</v>
+        <v>1.613266280567839</v>
       </c>
       <c r="D334" t="n">
-        <v>1.460230443287269</v>
+        <v>2.134178407879583</v>
       </c>
       <c r="E334" t="n">
         <v>23</v>
@@ -13079,13 +13079,13 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>0.6198604731563713</v>
+        <v>0.5209121273117441</v>
       </c>
       <c r="C335" t="n">
-        <v>0.840369970130898</v>
+        <v>1.613266280567839</v>
       </c>
       <c r="D335" t="n">
-        <v>1.460230443287269</v>
+        <v>2.134178407879583</v>
       </c>
       <c r="E335" t="n">
         <v>23</v>
@@ -13117,13 +13117,13 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>0.6198604731563713</v>
+        <v>0.5209121273117441</v>
       </c>
       <c r="C336" t="n">
-        <v>0.840369970130898</v>
+        <v>1.613266280567839</v>
       </c>
       <c r="D336" t="n">
-        <v>1.460230443287269</v>
+        <v>2.134178407879583</v>
       </c>
       <c r="E336" t="n">
         <v>23</v>
@@ -13155,13 +13155,13 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0.6198604731563713</v>
+        <v>0.5209121273117441</v>
       </c>
       <c r="C337" t="n">
-        <v>0.840369970130898</v>
+        <v>1.613266280567839</v>
       </c>
       <c r="D337" t="n">
-        <v>1.460230443287269</v>
+        <v>2.134178407879583</v>
       </c>
       <c r="E337" t="n">
         <v>23</v>
@@ -13193,13 +13193,13 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0.6198604731563713</v>
+        <v>0.5209121273117441</v>
       </c>
       <c r="C338" t="n">
-        <v>0.840369970130898</v>
+        <v>1.613266280567839</v>
       </c>
       <c r="D338" t="n">
-        <v>1.460230443287269</v>
+        <v>2.134178407879583</v>
       </c>
       <c r="E338" t="n">
         <v>23</v>
@@ -13231,13 +13231,13 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0.6198604731563713</v>
+        <v>0.5209121273117441</v>
       </c>
       <c r="C339" t="n">
-        <v>0.840369970130898</v>
+        <v>1.613266280567839</v>
       </c>
       <c r="D339" t="n">
-        <v>1.460230443287269</v>
+        <v>2.134178407879583</v>
       </c>
       <c r="E339" t="n">
         <v>23</v>
@@ -13269,13 +13269,13 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0.6198604731563713</v>
+        <v>0.5209121273117441</v>
       </c>
       <c r="C340" t="n">
-        <v>0.840369970130898</v>
+        <v>1.613266280567839</v>
       </c>
       <c r="D340" t="n">
-        <v>1.460230443287269</v>
+        <v>2.134178407879583</v>
       </c>
       <c r="E340" t="n">
         <v>23</v>
@@ -13307,13 +13307,13 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0.6198604731563713</v>
+        <v>0.5209121273117441</v>
       </c>
       <c r="C341" t="n">
-        <v>0.840369970130898</v>
+        <v>1.613266280567839</v>
       </c>
       <c r="D341" t="n">
-        <v>1.460230443287269</v>
+        <v>2.134178407879583</v>
       </c>
       <c r="E341" t="n">
         <v>23</v>
@@ -13345,13 +13345,13 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0.6198604731563713</v>
+        <v>0.5209121273117441</v>
       </c>
       <c r="C342" t="n">
-        <v>0.840369970130898</v>
+        <v>1.613266280567839</v>
       </c>
       <c r="D342" t="n">
-        <v>1.460230443287269</v>
+        <v>2.134178407879583</v>
       </c>
       <c r="E342" t="n">
         <v>23</v>
@@ -13383,13 +13383,13 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>0.6198604731563713</v>
+        <v>0.5209121273117441</v>
       </c>
       <c r="C343" t="n">
-        <v>0.840369970130898</v>
+        <v>1.613266280567839</v>
       </c>
       <c r="D343" t="n">
-        <v>1.460230443287269</v>
+        <v>2.134178407879583</v>
       </c>
       <c r="E343" t="n">
         <v>23</v>
@@ -13421,13 +13421,13 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>0.6065306597126334</v>
+        <v>0.513417119032592</v>
       </c>
       <c r="C344" t="n">
-        <v>0.8464817248906141</v>
+        <v>1.648721270700128</v>
       </c>
       <c r="D344" t="n">
-        <v>1.453012384603248</v>
+        <v>2.16213838973272</v>
       </c>
       <c r="E344" t="n">
         <v>24</v>
@@ -13459,13 +13459,13 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>0.6065306597126334</v>
+        <v>0.513417119032592</v>
       </c>
       <c r="C345" t="n">
-        <v>0.8464817248906141</v>
+        <v>1.648721270700128</v>
       </c>
       <c r="D345" t="n">
-        <v>1.453012384603248</v>
+        <v>2.16213838973272</v>
       </c>
       <c r="E345" t="n">
         <v>24</v>
@@ -13497,13 +13497,13 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0.6065306597126334</v>
+        <v>0.513417119032592</v>
       </c>
       <c r="C346" t="n">
-        <v>0.8464817248906141</v>
+        <v>1.648721270700128</v>
       </c>
       <c r="D346" t="n">
-        <v>1.453012384603248</v>
+        <v>2.16213838973272</v>
       </c>
       <c r="E346" t="n">
         <v>24</v>
@@ -13535,13 +13535,13 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0.6065306597126334</v>
+        <v>0.513417119032592</v>
       </c>
       <c r="C347" t="n">
-        <v>0.8464817248906141</v>
+        <v>1.648721270700128</v>
       </c>
       <c r="D347" t="n">
-        <v>1.453012384603248</v>
+        <v>2.16213838973272</v>
       </c>
       <c r="E347" t="n">
         <v>24</v>
@@ -13573,13 +13573,13 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0.6065306597126334</v>
+        <v>0.513417119032592</v>
       </c>
       <c r="C348" t="n">
-        <v>0.8464817248906141</v>
+        <v>1.648721270700128</v>
       </c>
       <c r="D348" t="n">
-        <v>1.453012384603248</v>
+        <v>2.16213838973272</v>
       </c>
       <c r="E348" t="n">
         <v>24</v>
@@ -13611,13 +13611,13 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0.6065306597126334</v>
+        <v>0.513417119032592</v>
       </c>
       <c r="C349" t="n">
-        <v>0.8464817248906141</v>
+        <v>1.648721270700128</v>
       </c>
       <c r="D349" t="n">
-        <v>1.453012384603248</v>
+        <v>2.16213838973272</v>
       </c>
       <c r="E349" t="n">
         <v>24</v>
@@ -13649,13 +13649,13 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>0.6065306597126334</v>
+        <v>0.513417119032592</v>
       </c>
       <c r="C350" t="n">
-        <v>0.8464817248906141</v>
+        <v>1.648721270700128</v>
       </c>
       <c r="D350" t="n">
-        <v>1.453012384603248</v>
+        <v>2.16213838973272</v>
       </c>
       <c r="E350" t="n">
         <v>24</v>
@@ -13687,13 +13687,13 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0.6065306597126334</v>
+        <v>0.513417119032592</v>
       </c>
       <c r="C351" t="n">
-        <v>0.8464817248906141</v>
+        <v>1.648721270700128</v>
       </c>
       <c r="D351" t="n">
-        <v>1.453012384603248</v>
+        <v>2.16213838973272</v>
       </c>
       <c r="E351" t="n">
         <v>24</v>
@@ -13725,13 +13725,13 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0.5945205479701944</v>
+        <v>0.5066169923655895</v>
       </c>
       <c r="C352" t="n">
-        <v>0.8521437889662113</v>
+        <v>1.682027649698886</v>
       </c>
       <c r="D352" t="n">
-        <v>1.446664336936406</v>
+        <v>2.188644642064476</v>
       </c>
       <c r="E352" t="n">
         <v>25</v>
@@ -13763,13 +13763,13 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0.5945205479701944</v>
+        <v>0.5066169923655895</v>
       </c>
       <c r="C353" t="n">
-        <v>0.8521437889662113</v>
+        <v>1.682027649698886</v>
       </c>
       <c r="D353" t="n">
-        <v>1.446664336936406</v>
+        <v>2.188644642064476</v>
       </c>
       <c r="E353" t="n">
         <v>25</v>
@@ -13801,13 +13801,13 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0.5945205479701944</v>
+        <v>0.5066169923655895</v>
       </c>
       <c r="C354" t="n">
-        <v>0.8521437889662113</v>
+        <v>1.682027649698886</v>
       </c>
       <c r="D354" t="n">
-        <v>1.446664336936406</v>
+        <v>2.188644642064476</v>
       </c>
       <c r="E354" t="n">
         <v>25</v>
@@ -13839,13 +13839,13 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0.5945205479701944</v>
+        <v>0.5066169923655895</v>
       </c>
       <c r="C355" t="n">
-        <v>0.8521437889662113</v>
+        <v>1.682027649698886</v>
       </c>
       <c r="D355" t="n">
-        <v>1.446664336936406</v>
+        <v>2.188644642064476</v>
       </c>
       <c r="E355" t="n">
         <v>25</v>
@@ -13877,13 +13877,13 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0.5945205479701944</v>
+        <v>0.5066169923655895</v>
       </c>
       <c r="C356" t="n">
-        <v>0.8521437889662113</v>
+        <v>1.682027649698886</v>
       </c>
       <c r="D356" t="n">
-        <v>1.446664336936406</v>
+        <v>2.188644642064476</v>
       </c>
       <c r="E356" t="n">
         <v>25</v>
@@ -13915,13 +13915,13 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0.5945205479701944</v>
+        <v>0.5066169923655895</v>
       </c>
       <c r="C357" t="n">
-        <v>0.8521437889662113</v>
+        <v>1.682027649698886</v>
       </c>
       <c r="D357" t="n">
-        <v>1.446664336936406</v>
+        <v>2.188644642064476</v>
       </c>
       <c r="E357" t="n">
         <v>25</v>
@@ -13953,13 +13953,13 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0.5907775139012316</v>
+        <v>0.5044883526787212</v>
       </c>
       <c r="C358" t="n">
-        <v>0.8539396656235352</v>
+        <v>1.692684600326856</v>
       </c>
       <c r="D358" t="n">
-        <v>1.444717179524767</v>
+        <v>2.197172953005578</v>
       </c>
       <c r="E358" t="n">
         <v>19</v>
@@ -13991,13 +13991,13 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0.583645478143574</v>
+        <v>0.50041992036057</v>
       </c>
       <c r="C359" t="n">
-        <v>0.8574039191604412</v>
+        <v>1.713368881363979</v>
       </c>
       <c r="D359" t="n">
-        <v>1.441049397304015</v>
+        <v>2.213788801724549</v>
       </c>
       <c r="E359" t="n">
         <v>26</v>
@@ -14029,13 +14029,13 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0.583645478143574</v>
+        <v>0.50041992036057</v>
       </c>
       <c r="C360" t="n">
-        <v>0.8574039191604412</v>
+        <v>1.713368881363979</v>
       </c>
       <c r="D360" t="n">
-        <v>1.441049397304015</v>
+        <v>2.213788801724549</v>
       </c>
       <c r="E360" t="n">
         <v>26</v>
@@ -14067,13 +14067,13 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0.583645478143574</v>
+        <v>0.50041992036057</v>
       </c>
       <c r="C361" t="n">
-        <v>0.8574039191604412</v>
+        <v>1.713368881363979</v>
       </c>
       <c r="D361" t="n">
-        <v>1.441049397304015</v>
+        <v>2.213788801724549</v>
       </c>
       <c r="E361" t="n">
         <v>26</v>
@@ -14105,13 +14105,13 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>0.5769498103804868</v>
+        <v>0.4965853037914095</v>
       </c>
       <c r="C362" t="n">
-        <v>0.8607079764250578</v>
+        <v>1.733253017867395</v>
       </c>
       <c r="D362" t="n">
-        <v>1.437657786805544</v>
+        <v>2.229838321658804</v>
       </c>
       <c r="E362" t="n">
         <v>20</v>
@@ -14143,13 +14143,13 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>0.5769498103804868</v>
+        <v>0.4965853037914095</v>
       </c>
       <c r="C363" t="n">
-        <v>0.8607079764250578</v>
+        <v>1.733253017867395</v>
       </c>
       <c r="D363" t="n">
-        <v>1.437657786805544</v>
+        <v>2.229838321658804</v>
       </c>
       <c r="E363" t="n">
         <v>20</v>
@@ -14181,13 +14181,13 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0.5737534207374327</v>
+        <v>0.4947495006964533</v>
       </c>
       <c r="C364" t="n">
-        <v>0.8623033568332588</v>
+        <v>1.742908998633458</v>
       </c>
       <c r="D364" t="n">
-        <v>1.436056777570692</v>
+        <v>2.237658499329911</v>
       </c>
       <c r="E364" t="n">
         <v>27</v>
@@ -14219,13 +14219,13 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C365" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D365" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E365" t="n">
         <v>16</v>
@@ -14257,13 +14257,13 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C366" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D366" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E366" t="n">
         <v>16</v>
@@ -14295,13 +14295,13 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C367" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D367" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E367" t="n">
         <v>16</v>
@@ -14333,13 +14333,13 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C368" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D368" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E368" t="n">
         <v>16</v>
@@ -14371,13 +14371,13 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C369" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D369" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E369" t="n">
         <v>16</v>
@@ -14409,13 +14409,13 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C370" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D370" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E370" t="n">
         <v>16</v>
@@ -14447,13 +14447,13 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C371" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D371" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E371" t="n">
         <v>16</v>
@@ -14485,13 +14485,13 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C372" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D372" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E372" t="n">
         <v>16</v>
@@ -14523,13 +14523,13 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C373" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D373" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E373" t="n">
         <v>16</v>
@@ -14561,13 +14561,13 @@
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C374" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D374" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E374" t="n">
         <v>16</v>
@@ -14599,13 +14599,13 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C375" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D375" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E375" t="n">
         <v>16</v>
@@ -14637,13 +14637,13 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C376" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D376" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E376" t="n">
         <v>16</v>
@@ -14675,13 +14675,13 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C377" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D377" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E377" t="n">
         <v>16</v>
@@ -14713,13 +14713,13 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C378" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D378" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E378" t="n">
         <v>16</v>
@@ -14751,13 +14751,13 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C379" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D379" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E379" t="n">
         <v>16</v>
@@ -14789,13 +14789,13 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C380" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D380" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E380" t="n">
         <v>16</v>
@@ -14827,13 +14827,13 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C381" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D381" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E381" t="n">
         <v>16</v>
@@ -14865,13 +14865,13 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C382" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D382" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E382" t="n">
         <v>16</v>
@@ -14903,13 +14903,13 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C383" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D383" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E383" t="n">
         <v>16</v>
@@ -14941,13 +14941,13 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C384" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D384" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E384" t="n">
         <v>16</v>
@@ -14979,13 +14979,13 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C385" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D385" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E385" t="n">
         <v>16</v>
@@ -15017,13 +15017,13 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C386" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D386" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E386" t="n">
         <v>16</v>
@@ -15055,13 +15055,13 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C387" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D387" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E387" t="n">
         <v>16</v>
@@ -15093,13 +15093,13 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C388" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D388" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E388" t="n">
         <v>16</v>
@@ -15131,13 +15131,13 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C389" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D389" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E389" t="n">
         <v>16</v>
@@ -15169,13 +15169,13 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C390" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D390" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E390" t="n">
         <v>16</v>
@@ -15207,13 +15207,13 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C391" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D391" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E391" t="n">
         <v>16</v>
@@ -15245,13 +15245,13 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C392" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D392" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E392" t="n">
         <v>16</v>
@@ -15283,13 +15283,13 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C393" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D393" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E393" t="n">
         <v>16</v>
@@ -15321,13 +15321,13 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C394" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D394" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E394" t="n">
         <v>16</v>
@@ -15359,13 +15359,13 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C395" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D395" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E395" t="n">
         <v>16</v>
@@ -15397,13 +15397,13 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C396" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D396" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E396" t="n">
         <v>16</v>
@@ -15435,13 +15435,13 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C397" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D397" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E397" t="n">
         <v>16</v>
@@ -15473,13 +15473,13 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C398" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D398" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E398" t="n">
         <v>16</v>
@@ -15511,13 +15511,13 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C399" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D399" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E399" t="n">
         <v>16</v>
@@ -15549,13 +15549,13 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C400" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D400" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E400" t="n">
         <v>16</v>
@@ -15587,13 +15587,13 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0.5352614285189903</v>
+        <v>0.4723665527410147</v>
       </c>
       <c r="C401" t="n">
-        <v>0.8824969025845955</v>
+        <v>1.868245957432222</v>
       </c>
       <c r="D401" t="n">
-        <v>1.417758331103586</v>
+        <v>2.340612510173237</v>
       </c>
       <c r="E401" t="n">
         <v>16</v>
@@ -15625,13 +15625,13 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C402" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D402" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E402" t="n">
         <v>17</v>
@@ -15663,13 +15663,13 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C403" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D403" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E403" t="n">
         <v>17</v>
@@ -15701,13 +15701,13 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C404" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D404" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E404" t="n">
         <v>17</v>
@@ -15739,13 +15739,13 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C405" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D405" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E405" t="n">
         <v>17</v>
@@ -15777,13 +15777,13 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C406" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D406" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E406" t="n">
         <v>17</v>
@@ -15815,13 +15815,13 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C407" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D407" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E407" t="n">
         <v>17</v>
@@ -15853,13 +15853,13 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C408" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D408" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E408" t="n">
         <v>17</v>
@@ -15891,13 +15891,13 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C409" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D409" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E409" t="n">
         <v>17</v>
@@ -15929,13 +15929,13 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C410" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D410" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E410" t="n">
         <v>17</v>
@@ -15967,13 +15967,13 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C411" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D411" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E411" t="n">
         <v>17</v>
@@ -16005,13 +16005,13 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C412" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D412" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E412" t="n">
         <v>17</v>
@@ -16043,13 +16043,13 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C413" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D413" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E413" t="n">
         <v>17</v>
@@ -16081,13 +16081,13 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C414" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D414" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E414" t="n">
         <v>17</v>
@@ -16119,13 +16119,13 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C415" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D415" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E415" t="n">
         <v>17</v>
@@ -16157,13 +16157,13 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C416" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D416" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E416" t="n">
         <v>17</v>
@@ -16195,13 +16195,13 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C417" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D417" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E417" t="n">
         <v>17</v>
@@ -16233,13 +16233,13 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C418" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D418" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E418" t="n">
         <v>17</v>
@@ -16271,13 +16271,13 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C419" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D419" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E419" t="n">
         <v>17</v>
@@ -16309,13 +16309,13 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C420" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D420" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E420" t="n">
         <v>17</v>
@@ -16347,13 +16347,13 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C421" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D421" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E421" t="n">
         <v>17</v>
@@ -16385,13 +16385,13 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.523583465714997</v>
+        <v>0.4654708140240617</v>
       </c>
       <c r="C422" t="n">
-        <v>0.8890097654027757</v>
+        <v>1.90991516249356</v>
       </c>
       <c r="D422" t="n">
-        <v>1.412593231117773</v>
+        <v>2.375385976517622</v>
       </c>
       <c r="E422" t="n">
         <v>17</v>
@@ -16423,13 +16423,13 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.513417119032592</v>
+        <v>0.4594258240359266</v>
       </c>
       <c r="C423" t="n">
-        <v>0.8948393168143698</v>
+        <v>1.947734041054676</v>
       </c>
       <c r="D423" t="n">
-        <v>1.408256435846962</v>
+        <v>2.407159865090603</v>
       </c>
       <c r="E423" t="n">
         <v>18</v>
@@ -16461,13 +16461,13 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0.513417119032592</v>
+        <v>0.4594258240359266</v>
       </c>
       <c r="C424" t="n">
-        <v>0.8948393168143698</v>
+        <v>1.947734041054676</v>
       </c>
       <c r="D424" t="n">
-        <v>1.408256435846962</v>
+        <v>2.407159865090603</v>
       </c>
       <c r="E424" t="n">
         <v>18</v>
@@ -16499,13 +16499,13 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.513417119032592</v>
+        <v>0.4594258240359266</v>
       </c>
       <c r="C425" t="n">
-        <v>0.8948393168143698</v>
+        <v>1.947734041054676</v>
       </c>
       <c r="D425" t="n">
-        <v>1.408256435846962</v>
+        <v>2.407159865090603</v>
       </c>
       <c r="E425" t="n">
         <v>18</v>
@@ -16537,13 +16537,13 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.513417119032592</v>
+        <v>0.4594258240359266</v>
       </c>
       <c r="C426" t="n">
-        <v>0.8948393168143698</v>
+        <v>1.947734041054676</v>
       </c>
       <c r="D426" t="n">
-        <v>1.408256435846962</v>
+        <v>2.407159865090603</v>
       </c>
       <c r="E426" t="n">
         <v>18</v>
@@ -16575,13 +16575,13 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.513417119032592</v>
+        <v>0.4594258240359266</v>
       </c>
       <c r="C427" t="n">
-        <v>0.8948393168143698</v>
+        <v>1.947734041054676</v>
       </c>
       <c r="D427" t="n">
-        <v>1.408256435846962</v>
+        <v>2.407159865090603</v>
       </c>
       <c r="E427" t="n">
         <v>18</v>
@@ -16613,13 +16613,13 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.513417119032592</v>
+        <v>0.4594258240359266</v>
       </c>
       <c r="C428" t="n">
-        <v>0.8948393168143698</v>
+        <v>1.947734041054676</v>
       </c>
       <c r="D428" t="n">
-        <v>1.408256435846962</v>
+        <v>2.407159865090603</v>
       </c>
       <c r="E428" t="n">
         <v>18</v>
@@ -16651,13 +16651,13 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.513417119032592</v>
+        <v>0.4594258240359266</v>
       </c>
       <c r="C429" t="n">
-        <v>0.8948393168143698</v>
+        <v>1.947734041054676</v>
       </c>
       <c r="D429" t="n">
-        <v>1.408256435846962</v>
+        <v>2.407159865090603</v>
       </c>
       <c r="E429" t="n">
         <v>18</v>
@@ -16689,13 +16689,13 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.513417119032592</v>
+        <v>0.4594258240359266</v>
       </c>
       <c r="C430" t="n">
-        <v>0.8948393168143698</v>
+        <v>1.947734041054676</v>
       </c>
       <c r="D430" t="n">
-        <v>1.408256435846962</v>
+        <v>2.407159865090603</v>
       </c>
       <c r="E430" t="n">
         <v>18</v>
@@ -16727,13 +16727,13 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.513417119032592</v>
+        <v>0.4594258240359266</v>
       </c>
       <c r="C431" t="n">
-        <v>0.8948393168143698</v>
+        <v>1.947734041054676</v>
       </c>
       <c r="D431" t="n">
-        <v>1.408256435846962</v>
+        <v>2.407159865090603</v>
       </c>
       <c r="E431" t="n">
         <v>18</v>
@@ -16765,13 +16765,13 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.5044883526787212</v>
+        <v>0.4540837238345027</v>
       </c>
       <c r="C432" t="n">
-        <v>0.9000876262522592</v>
+        <v>1.982206317926315</v>
       </c>
       <c r="D432" t="n">
-        <v>1.40457597893098</v>
+        <v>2.436290041760818</v>
       </c>
       <c r="E432" t="n">
         <v>19</v>
@@ -16803,13 +16803,13 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0.5044883526787212</v>
+        <v>0.4540837238345027</v>
       </c>
       <c r="C433" t="n">
-        <v>0.9000876262522592</v>
+        <v>1.982206317926315</v>
       </c>
       <c r="D433" t="n">
-        <v>1.40457597893098</v>
+        <v>2.436290041760818</v>
       </c>
       <c r="E433" t="n">
         <v>19</v>
@@ -16841,13 +16841,13 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.5044883526787212</v>
+        <v>0.4540837238345027</v>
       </c>
       <c r="C434" t="n">
-        <v>0.9000876262522592</v>
+        <v>1.982206317926315</v>
       </c>
       <c r="D434" t="n">
-        <v>1.40457597893098</v>
+        <v>2.436290041760818</v>
       </c>
       <c r="E434" t="n">
         <v>19</v>
@@ -16879,13 +16879,13 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0.5044883526787212</v>
+        <v>0.4540837238345027</v>
       </c>
       <c r="C435" t="n">
-        <v>0.9000876262522592</v>
+        <v>1.982206317926315</v>
       </c>
       <c r="D435" t="n">
-        <v>1.40457597893098</v>
+        <v>2.436290041760818</v>
       </c>
       <c r="E435" t="n">
         <v>19</v>
@@ -16917,13 +16917,13 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.5044883526787212</v>
+        <v>0.4540837238345027</v>
       </c>
       <c r="C436" t="n">
-        <v>0.9000876262522592</v>
+        <v>1.982206317926315</v>
       </c>
       <c r="D436" t="n">
-        <v>1.40457597893098</v>
+        <v>2.436290041760818</v>
       </c>
       <c r="E436" t="n">
         <v>19</v>
@@ -16955,13 +16955,13 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0.4965853037914095</v>
+        <v>0.4493289641172216</v>
       </c>
       <c r="C437" t="n">
-        <v>0.9048374180359595</v>
+        <v>2.013752707470477</v>
       </c>
       <c r="D437" t="n">
-        <v>1.401422721827369</v>
+        <v>2.463081671587698</v>
       </c>
       <c r="E437" t="n">
         <v>20</v>
@@ -16993,13 +16993,13 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.4965853037914095</v>
+        <v>0.4493289641172216</v>
       </c>
       <c r="C438" t="n">
-        <v>0.9048374180359595</v>
+        <v>2.013752707470477</v>
       </c>
       <c r="D438" t="n">
-        <v>1.401422721827369</v>
+        <v>2.463081671587698</v>
       </c>
       <c r="E438" t="n">
         <v>20</v>
@@ -17031,13 +17031,13 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0.4965853037914095</v>
+        <v>0.4493289641172216</v>
       </c>
       <c r="C439" t="n">
-        <v>0.9048374180359595</v>
+        <v>2.013752707470477</v>
       </c>
       <c r="D439" t="n">
-        <v>1.401422721827369</v>
+        <v>2.463081671587698</v>
       </c>
       <c r="E439" t="n">
         <v>20</v>
@@ -17069,13 +17069,13 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0.4965853037914095</v>
+        <v>0.4493289641172216</v>
       </c>
       <c r="C440" t="n">
-        <v>0.9048374180359595</v>
+        <v>2.013752707470477</v>
       </c>
       <c r="D440" t="n">
-        <v>1.401422721827369</v>
+        <v>2.463081671587698</v>
       </c>
       <c r="E440" t="n">
         <v>20</v>
@@ -17107,13 +17107,13 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.4965853037914095</v>
+        <v>0.4493289641172216</v>
       </c>
       <c r="C441" t="n">
-        <v>0.9048374180359595</v>
+        <v>2.013752707470477</v>
       </c>
       <c r="D441" t="n">
-        <v>1.401422721827369</v>
+        <v>2.463081671587698</v>
       </c>
       <c r="E441" t="n">
         <v>20</v>
@@ -17145,13 +17145,13 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0.4965853037914095</v>
+        <v>0.4493289641172216</v>
       </c>
       <c r="C442" t="n">
-        <v>0.9048374180359595</v>
+        <v>2.013752707470477</v>
       </c>
       <c r="D442" t="n">
-        <v>1.401422721827369</v>
+        <v>2.463081671587698</v>
       </c>
       <c r="E442" t="n">
         <v>20</v>
@@ -17183,13 +17183,13 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.4895416595569531</v>
+        <v>0.4450699538427624</v>
       </c>
       <c r="C443" t="n">
-        <v>0.909156442876713</v>
+        <v>2.042727070266142</v>
       </c>
       <c r="D443" t="n">
-        <v>1.398698102433666</v>
+        <v>2.487797024108904</v>
       </c>
       <c r="E443" t="n">
         <v>21</v>
@@ -17221,13 +17221,13 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0.4832250811898254</v>
+        <v>0.4412331677599839</v>
       </c>
       <c r="C444" t="n">
-        <v>0.9131007162822623</v>
+        <v>2.069429007156956</v>
       </c>
       <c r="D444" t="n">
-        <v>1.396325797472088</v>
+        <v>2.51066217491694</v>
       </c>
       <c r="E444" t="n">
         <v>22</v>
@@ -17259,13 +17259,13 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.4594258240359266</v>
+        <v>0.4266241552421304</v>
       </c>
       <c r="C445" t="n">
-        <v>0.9286029058931803</v>
+        <v>2.176629931716248</v>
       </c>
       <c r="D445" t="n">
-        <v>1.388028729929107</v>
+        <v>2.603254086958379</v>
       </c>
       <c r="E445" t="n">
         <v>27</v>
@@ -17300,10 +17300,10 @@
         <v>0.3678794411714423</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>2.718281828459045</v>
       </c>
       <c r="D446" t="n">
-        <v>1.367879441171442</v>
+        <v>3.086161269630487</v>
       </c>
       <c r="E446" t="n">
         <v>14</v>
@@ -17338,10 +17338,10 @@
         <v>0.3678794411714423</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>2.718281828459045</v>
       </c>
       <c r="D447" t="n">
-        <v>1.367879441171442</v>
+        <v>3.086161269630487</v>
       </c>
       <c r="E447" t="n">
         <v>14</v>
@@ -17376,10 +17376,10 @@
         <v>0.3678794411714423</v>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>2.718281828459045</v>
       </c>
       <c r="D448" t="n">
-        <v>1.367879441171442</v>
+        <v>3.086161269630487</v>
       </c>
       <c r="E448" t="n">
         <v>15</v>
@@ -17414,10 +17414,10 @@
         <v>0.3678794411714423</v>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>2.718281828459045</v>
       </c>
       <c r="D449" t="n">
-        <v>1.367879441171442</v>
+        <v>3.086161269630487</v>
       </c>
       <c r="E449" t="n">
         <v>16</v>
@@ -17452,10 +17452,10 @@
         <v>0.3678794411714423</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>2.718281828459045</v>
       </c>
       <c r="D450" t="n">
-        <v>1.367879441171442</v>
+        <v>3.086161269630487</v>
       </c>
       <c r="E450" t="n">
         <v>16</v>
@@ -17490,10 +17490,10 @@
         <v>0.3678794411714423</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>2.718281828459045</v>
       </c>
       <c r="D451" t="n">
-        <v>1.367879441171442</v>
+        <v>3.086161269630487</v>
       </c>
       <c r="E451" t="n">
         <v>14</v>
@@ -17528,10 +17528,10 @@
         <v>0.3678794411714423</v>
       </c>
       <c r="C452" t="n">
-        <v>1</v>
+        <v>2.718281828459045</v>
       </c>
       <c r="D452" t="n">
-        <v>1.367879441171442</v>
+        <v>3.086161269630487</v>
       </c>
       <c r="E452" t="n">
         <v>14</v>
@@ -17566,10 +17566,10 @@
         <v>0.3678794411714423</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>2.718281828459045</v>
       </c>
       <c r="D453" t="n">
-        <v>1.367879441171442</v>
+        <v>3.086161269630487</v>
       </c>
       <c r="E453" t="n">
         <v>14</v>
@@ -17604,10 +17604,10 @@
         <v>0.3678794411714423</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>2.718281828459045</v>
       </c>
       <c r="D454" t="n">
-        <v>1.367879441171442</v>
+        <v>3.086161269630487</v>
       </c>
       <c r="E454" t="n">
         <v>14</v>
@@ -17642,10 +17642,10 @@
         <v>0.3678794411714423</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>2.718281828459045</v>
       </c>
       <c r="D455" t="n">
-        <v>1.367879441171442</v>
+        <v>3.086161269630487</v>
       </c>
       <c r="E455" t="n">
         <v>14</v>
@@ -17680,10 +17680,10 @@
         <v>0.3678794411714423</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>2.718281828459045</v>
       </c>
       <c r="D456" t="n">
-        <v>1.367879441171442</v>
+        <v>3.086161269630487</v>
       </c>
       <c r="E456" t="n">
         <v>14</v>
